--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +398,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -430,6 +435,9 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -462,6 +470,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,6 +505,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -526,6 +540,9 @@
       <c r="H5">
         <v>22</v>
       </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -555,6 +572,9 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -584,6 +604,9 @@
       <c r="H7">
         <v>4</v>
       </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -616,6 +639,9 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -645,6 +671,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -674,6 +703,9 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -683,18 +715,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD VILLASANTANA</t>
-        </is>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+          <t>CENTRO DE SALUD SAN CAMILO</t>
+        </is>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
@@ -706,18 +735,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD PERLA DEL OTUN</t>
+          <t>CENTRO DE SALUD VILLASANTANA</t>
         </is>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
@@ -729,15 +761,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD VILLA CONSOTA</t>
+          <t>CENTRO DE SALUD PERLA DEL OTUN</t>
         </is>
       </c>
       <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -749,18 +787,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD PUERTO CALDAS</t>
-        </is>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+          <t>CENTRO DE SALUD VILLA CONSOTA</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
@@ -772,18 +810,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD CAIMALITO</t>
-        </is>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+          <t>PUESTO DE SALUD PUERTO CALDAS</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
@@ -795,18 +833,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD CRUCERO DE COMBIA</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+          <t>PUESTO DE SALUD CAIMALITO</t>
+        </is>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
     </row>
@@ -818,18 +856,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ARABIA</t>
-        </is>
-      </c>
-      <c r="F17">
-        <v>0</v>
+          <t>PUESTO DE SALUD CRUCERO DE COMBIA</t>
+        </is>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
     </row>
@@ -841,18 +879,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ALTAGRACIA</t>
-        </is>
+          <t>PUESTO DE SALUD ARABIA</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
@@ -864,28 +905,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HOSPITAL DEL CENTRO</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
+          <t>PUESTO DE SALUD ALTAGRACIA</t>
+        </is>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -896,60 +931,63 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
-        </is>
+          <t>HOSPITAL DEL CENTRO</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6600100361</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CLINICA LOS ROSALES</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>19</v>
+          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
+        </is>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6600100762</t>
+          <t>6600100361</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -959,29 +997,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
+          <t>CLINICA LOS ROSALES</t>
         </is>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
         <v>13</v>
       </c>
-      <c r="F22">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
-      </c>
       <c r="H22">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6600100785</t>
+          <t>6600100762</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -991,29 +1032,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LIGA CONTRA EL CANCER SECCIONAL RISARALDA</t>
+          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
         </is>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6600100811</t>
+          <t>6600100785</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1023,7 +1067,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
+          <t>LIGA CONTRA EL CANCER SECCIONAL RISARALDA</t>
         </is>
       </c>
       <c r="D24">
@@ -1039,77 +1083,86 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6600101587</t>
+          <t>6600100811</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
         </is>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6600101736</t>
+          <t>6600101587</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
+          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
         </is>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6600101781</t>
+          <t>6600101736</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1119,7 +1172,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
         </is>
       </c>
       <c r="D27">
@@ -1135,13 +1188,16 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6600101912</t>
+          <t>6600101781</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1151,7 +1207,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RED MEDICA VITAL SAS</t>
+          <t>SINERGIA GLOBAL EN SALUD SAS</t>
         </is>
       </c>
       <c r="D28">
@@ -1164,13 +1220,19 @@
         <v>0</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600101912</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1180,7 +1242,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
+          <t>RED MEDICA VITAL SAS</t>
         </is>
       </c>
       <c r="D29">
@@ -1195,14 +1257,14 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1212,29 +1274,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
+      </c>
+      <c r="I30">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1244,7 +1294,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GRUPO EMI</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D31">
@@ -1257,23 +1307,29 @@
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D32">
@@ -1289,23 +1345,26 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>GRUPO EMI</t>
         </is>
       </c>
       <c r="D33">
@@ -1320,7 +1379,7 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0</v>
       </c>
     </row>
@@ -1332,12 +1391,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D34">
@@ -1353,6 +1412,9 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
     </row>
@@ -1364,12 +1426,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D35">
@@ -1385,23 +1447,26 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D36">
@@ -1417,23 +1482,26 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D37">
@@ -1449,13 +1517,16 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1465,7 +1536,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D38">
@@ -1474,17 +1545,23 @@
       <c r="E38">
         <v>0</v>
       </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1494,8 +1571,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
-        </is>
+          <t>NEUROMEDICA SAS</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1504,13 +1587,16 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1520,7 +1606,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
         </is>
       </c>
       <c r="D40">
@@ -1529,36 +1615,33 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+        </is>
+      </c>
+      <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
@@ -1571,7 +1654,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1581,7 +1664,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>CLINICA LOS NEVADOS SAS</t>
         </is>
       </c>
       <c r="D42">
@@ -1590,42 +1673,115 @@
       <c r="E42">
         <v>0</v>
       </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>6600161600</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EPMSC PEREIRA</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,6 +403,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1258,6 +1263,9 @@
         <v>0</v>
       </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -443,21 +448,27 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6600100217</t>
+          <t>6600100208</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO N° 1</t>
+          <t>INSTITUTO DE DIAGNOSTICO MEDICO SA</t>
         </is>
       </c>
       <c r="D3">
@@ -467,15 +478,6 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
         <v>0</v>
       </c>
     </row>
@@ -487,12 +489,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO Y ODONTOLOGICO DE LA CIRCUNVALAR</t>
+          <t>CENTRO MEDICO N° 1</t>
         </is>
       </c>
       <c r="D4">
@@ -511,6 +513,12 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -522,63 +530,78 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CLINICA COMFAMILIAR</t>
+          <t>CENTRO MEDICO Y ODONTOLOGICO DE LA CIRCUNVALAR</t>
         </is>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6600100332</t>
+          <t>6600100217</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UNIDAD INTERMEDIA DE KENNEDY</t>
+          <t>CLINICA COMFAMILIAR</t>
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -589,28 +612,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UNIDAD INTERMEDIA DE CUBA</t>
+          <t>UNIDAD INTERMEDIA DE KENNEDY</t>
         </is>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -621,31 +650,34 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD BOSTON</t>
+          <t>UNIDAD INTERMEDIA DE CUBA</t>
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -656,17 +688,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD SANTA TERESITA</t>
+          <t>CENTRO DE SALUD BOSTON</t>
         </is>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -677,6 +712,12 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0</v>
       </c>
     </row>
@@ -688,12 +729,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD SAN NICOLAS</t>
+          <t>CENTRO DE SALUD SANTA TERESITA</t>
         </is>
       </c>
       <c r="D10">
@@ -709,6 +750,12 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>0</v>
       </c>
     </row>
@@ -720,13 +767,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD SAN CAMILO</t>
-        </is>
+          <t>CENTRO DE SALUD SAN NICOLAS</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -740,19 +799,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD VILLASANTANA</t>
-        </is>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+          <t>CENTRO DE SALUD SAN CAMILO</t>
+        </is>
       </c>
       <c r="I12">
         <v>0</v>
@@ -766,21 +819,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD PERLA DEL OTUN</t>
+          <t>CENTRO DE SALUD VILLASANTANA</t>
         </is>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
     </row>
@@ -792,18 +848,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD VILLA CONSOTA</t>
+          <t>CENTRO DE SALUD PERLA DEL OTUN</t>
         </is>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>0</v>
       </c>
     </row>
@@ -815,18 +880,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD PUERTO CALDAS</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
+          <t>CENTRO DE SALUD VILLA CONSOTA</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>0</v>
       </c>
     </row>
@@ -838,18 +906,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD CAIMALITO</t>
-        </is>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+          <t>PUESTO DE SALUD PUERTO CALDAS</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0</v>
       </c>
     </row>
@@ -861,18 +929,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD CRUCERO DE COMBIA</t>
-        </is>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
+          <t>PUESTO DE SALUD CAIMALITO</t>
+        </is>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>0</v>
       </c>
     </row>
@@ -884,21 +958,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ARABIA</t>
-        </is>
-      </c>
-      <c r="F18">
-        <v>0</v>
+          <t>PUESTO DE SALUD CRUCERO DE COMBIA</t>
+        </is>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <v>0</v>
       </c>
     </row>
@@ -910,18 +981,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ALTAGRACIA</t>
-        </is>
+          <t>PUESTO DE SALUD ARABIA</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
@@ -936,31 +1007,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HOSPITAL DEL CENTRO</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
+          <t>PUESTO DE SALUD ALTAGRACIA</t>
+        </is>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -971,63 +1039,75 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
-        </is>
+          <t>HOSPITAL DEL CENTRO</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6600100361</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CLINICA LOS ROSALES</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>19</v>
+          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
+        </is>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6600100762</t>
+          <t>6600100361</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1037,32 +1117,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
+          <t>CLINICA LOS ROSALES</t>
         </is>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
         <v>13</v>
       </c>
-      <c r="F23">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <v>15</v>
-      </c>
       <c r="H23">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6600100785</t>
+          <t>6600100663</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1072,32 +1158,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LIGA CONTRA EL CANCER SECCIONAL RISARALDA</t>
+          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
         </is>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6600100811</t>
+          <t>6600100762</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1107,67 +1199,76 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
+          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
         </is>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6600101587</t>
+          <t>6600100785</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+          <t>LIGA CONTRA EL CANCER SECCIONAL RISARALDA</t>
         </is>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6600101736</t>
+          <t>6600100811</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1177,7 +1278,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
+          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
         </is>
       </c>
       <c r="D27">
@@ -1196,48 +1297,60 @@
         <v>0</v>
       </c>
       <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6600101781</t>
+          <t>6600101587</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
         </is>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6600101912</t>
+          <t>6600101736</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1247,7 +1360,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RED MEDICA VITAL SAS</t>
+          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
         </is>
       </c>
       <c r="D29">
@@ -1262,37 +1375,64 @@
       <c r="G29">
         <v>0</v>
       </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6600102411</t>
+          <t>6600101781</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
-        </is>
+          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600101912</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1302,7 +1442,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
+          <t>RED MEDICA VITAL SAS</t>
         </is>
       </c>
       <c r="D31">
@@ -1321,13 +1461,19 @@
         <v>0</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1337,32 +1483,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1372,7 +1506,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GRUPO EMI</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D33">
@@ -1387,24 +1521,33 @@
       <c r="G33">
         <v>0</v>
       </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D34">
@@ -1423,23 +1566,29 @@
         <v>0</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>GRUPO EMI</t>
         </is>
       </c>
       <c r="D35">
@@ -1454,10 +1603,13 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>0</v>
       </c>
     </row>
@@ -1469,12 +1621,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D36">
@@ -1493,6 +1645,12 @@
         <v>0</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>0</v>
       </c>
     </row>
@@ -1504,12 +1662,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D37">
@@ -1528,23 +1686,29 @@
         <v>0</v>
       </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D38">
@@ -1563,23 +1727,29 @@
         <v>0</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D39">
@@ -1598,13 +1768,19 @@
         <v>0</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1614,7 +1790,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D40">
@@ -1623,6 +1799,9 @@
       <c r="E40">
         <v>0</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
       <c r="G40">
         <v>0</v>
       </c>
@@ -1630,13 +1809,19 @@
         <v>0</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1646,8 +1831,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
-        </is>
+          <t>NEUROMEDICA SAS</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1656,13 +1847,22 @@
         <v>0</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1672,7 +1872,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
         </is>
       </c>
       <c r="D42">
@@ -1681,39 +1881,39 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
+          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+        </is>
+      </c>
+      <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
@@ -1722,14 +1922,17 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1739,7 +1942,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>CLINICA LOS NEVADOS SAS</t>
         </is>
       </c>
       <c r="D44">
@@ -1748,48 +1951,162 @@
       <c r="E44">
         <v>0</v>
       </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>6600103334</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
+        </is>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6600161600</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>EPMSC PEREIRA</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,6 +413,21 @@
           <t>8</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +469,15 @@
       <c r="K2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -480,6 +504,27 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -521,6 +566,15 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -562,6 +616,15 @@
       <c r="K5">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -603,6 +666,15 @@
       <c r="K6">
         <v>13</v>
       </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>22</v>
+      </c>
+      <c r="N6">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -641,6 +713,15 @@
       <c r="K7">
         <v>5</v>
       </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -679,6 +760,15 @@
       <c r="K8">
         <v>10</v>
       </c>
+      <c r="L8">
+        <v>19</v>
+      </c>
+      <c r="M8">
+        <v>28</v>
+      </c>
+      <c r="N8">
+        <v>17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,6 +810,15 @@
       <c r="K9">
         <v>0</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -758,6 +857,15 @@
       <c r="K10">
         <v>0</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -790,6 +898,15 @@
       <c r="I11">
         <v>0</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -810,6 +927,9 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -839,6 +959,12 @@
       <c r="K13">
         <v>0</v>
       </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -871,6 +997,15 @@
       <c r="K14">
         <v>0</v>
       </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -897,6 +1032,15 @@
       <c r="K15">
         <v>0</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -920,6 +1064,12 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -949,6 +1099,15 @@
       <c r="K17">
         <v>0</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -958,18 +1117,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD CRUCERO DE COMBIA</t>
-        </is>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+          <t>PUESTO DE SALUD FONDA CENTRAL</t>
+        </is>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
     </row>
@@ -981,21 +1137,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ARABIA</t>
-        </is>
-      </c>
-      <c r="F19">
-        <v>0</v>
+          <t>PUESTO DE SALUD CRUCERO DE COMBIA</t>
+        </is>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
     </row>
@@ -1007,27 +1163,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ALTAGRACIA</t>
-        </is>
+          <t>PUESTO DE SALUD ARABIA</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
     </row>
@@ -1039,36 +1198,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HOSPITAL DEL CENTRO</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
+          <t>PUESTO DE SALUD ALTAGRACIA</t>
+        </is>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
     </row>
@@ -1080,154 +1239,136 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
-        </is>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
+          <t>PUESTO DE SALUD MORELIA</t>
+        </is>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6600100361</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CLINICA LOS ROSALES</t>
+          <t>HOSPITAL DEL CENTRO</t>
         </is>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
         <v>3</v>
-      </c>
-      <c r="K23">
-        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6600100663</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>31</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
+          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
+        </is>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6600100762</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>21</v>
-      </c>
-      <c r="E25">
-        <v>13</v>
-      </c>
-      <c r="F25">
-        <v>15</v>
-      </c>
-      <c r="G25">
-        <v>15</v>
-      </c>
-      <c r="H25">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>12</v>
-      </c>
-      <c r="J25">
-        <v>16</v>
+          <t>CENTRO DE SALUD EL REMANSO</t>
+        </is>
+      </c>
+      <c r="N25">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6600100785</t>
+          <t>6600100361</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1237,38 +1378,47 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LIGA CONTRA EL CANCER SECCIONAL RISARALDA</t>
+          <t>CLINICA LOS ROSALES</t>
         </is>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6600100811</t>
+          <t>6600100663</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1278,79 +1428,94 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
+          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
         </is>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6600101587</t>
+          <t>6600100762</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
         </is>
       </c>
       <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28">
+        <v>18</v>
+      </c>
+      <c r="M28">
         <v>10</v>
       </c>
-      <c r="E28">
-        <v>18</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <v>23</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
-        <v>17</v>
-      </c>
-      <c r="J28">
-        <v>10</v>
-      </c>
-      <c r="K28">
-        <v>23</v>
+      <c r="N28">
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6600101736</t>
+          <t>6600100785</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1360,7 +1525,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
+          <t>LIGA CONTRA EL CANCER SECCIONAL RISARALDA</t>
         </is>
       </c>
       <c r="D29">
@@ -1385,13 +1550,22 @@
         <v>0</v>
       </c>
       <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6600101781</t>
+          <t>6600100811</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1401,7 +1575,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
         </is>
       </c>
       <c r="D30">
@@ -1426,13 +1600,22 @@
         <v>0</v>
       </c>
       <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6600101912</t>
+          <t>6600101567</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1442,61 +1625,67 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RED MEDICA VITAL SAS</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+          <t>SOCIEDAD INTEGRAL DE ESPECIALISTAS EN SALUD SAS</t>
+        </is>
+      </c>
+      <c r="N31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6600102411</t>
+          <t>6600101587</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
-        </is>
+          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32">
+        <v>23</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>17</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600101736</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1506,7 +1695,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
+          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
         </is>
       </c>
       <c r="D33">
@@ -1532,22 +1721,31 @@
       </c>
       <c r="K33">
         <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600101781</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
+          <t>SINERGIA GLOBAL EN SALUD SAS</t>
         </is>
       </c>
       <c r="D34">
@@ -1572,13 +1770,22 @@
         <v>0</v>
       </c>
       <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600101912</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1588,7 +1795,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GRUPO EMI</t>
+          <t>RED MEDICA VITAL SAS</t>
         </is>
       </c>
       <c r="D35">
@@ -1603,6 +1810,9 @@
       <c r="G35">
         <v>0</v>
       </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
       <c r="I35">
         <v>0</v>
       </c>
@@ -1610,64 +1820,64 @@
         <v>0</v>
       </c>
       <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D37">
@@ -1692,23 +1902,32 @@
         <v>0</v>
       </c>
       <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D38">
@@ -1733,23 +1952,32 @@
         <v>0</v>
       </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>GRUPO EMI</t>
         </is>
       </c>
       <c r="D39">
@@ -1764,9 +1992,6 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
         <v>0</v>
       </c>
@@ -1774,13 +1999,22 @@
         <v>0</v>
       </c>
       <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1790,7 +2024,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D40">
@@ -1815,23 +2049,32 @@
         <v>0</v>
       </c>
       <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D41">
@@ -1856,23 +2099,32 @@
         <v>0</v>
       </c>
       <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D42">
@@ -1881,6 +2133,9 @@
       <c r="E42">
         <v>0</v>
       </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
       <c r="G42">
         <v>0</v>
       </c>
@@ -1894,24 +2149,39 @@
         <v>0</v>
       </c>
       <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
-        </is>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1922,17 +2192,29 @@
       <c r="H43">
         <v>0</v>
       </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1942,7 +2224,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D44">
@@ -1958,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1967,13 +2249,22 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6600103334</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1983,30 +2274,57 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CLINICA CENTRAL DEL EJE SAS</t>
-        </is>
+          <t>NEUROMEDICA SAS</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
         </is>
       </c>
       <c r="D46">
@@ -2028,13 +2346,22 @@
         <v>0</v>
       </c>
       <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2044,13 +2371,10 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+        </is>
+      </c>
+      <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
@@ -2059,54 +2383,239 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>6600103144</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CLINICA LOS NEVADOS SAS</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6600103334</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
+        </is>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6600161600</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EPMSC PEREIRA</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,6 +428,16 @@
           <t>11</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +488,12 @@
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -525,6 +541,9 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -575,6 +594,12 @@
       <c r="N4">
         <v>0</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -625,6 +650,12 @@
       <c r="N5">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -675,6 +706,12 @@
       <c r="N6">
         <v>21</v>
       </c>
+      <c r="O6">
+        <v>15</v>
+      </c>
+      <c r="P6">
+        <v>36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -722,6 +759,12 @@
       <c r="N7">
         <v>2</v>
       </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -769,6 +812,12 @@
       <c r="N8">
         <v>17</v>
       </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+      <c r="P8">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -819,6 +868,12 @@
       <c r="N9">
         <v>0</v>
       </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -866,6 +921,12 @@
       <c r="N10">
         <v>0</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -907,6 +968,12 @@
       <c r="N11">
         <v>0</v>
       </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -965,6 +1032,9 @@
       <c r="N13">
         <v>0</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1076,12 @@
       <c r="N14">
         <v>0</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1041,6 +1117,9 @@
       <c r="N15">
         <v>0</v>
       </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1070,6 +1149,9 @@
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1108,6 +1190,12 @@
       <c r="N17">
         <v>0</v>
       </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1128,6 +1216,9 @@
       <c r="N18">
         <v>0</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1154,6 +1245,9 @@
       <c r="M19">
         <v>0</v>
       </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1189,6 +1283,12 @@
       <c r="N20">
         <v>0</v>
       </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1230,6 +1330,12 @@
       <c r="N21">
         <v>0</v>
       </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1253,6 +1359,12 @@
       <c r="M22">
         <v>0</v>
       </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1303,6 +1415,12 @@
       <c r="N23">
         <v>3</v>
       </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1344,6 +1462,12 @@
       <c r="N24">
         <v>0</v>
       </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1414,6 +1538,12 @@
       <c r="N26">
         <v>18</v>
       </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1461,6 +1591,12 @@
       <c r="N27">
         <v>2</v>
       </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1511,6 +1647,12 @@
       <c r="N28">
         <v>16</v>
       </c>
+      <c r="O28">
+        <v>9</v>
+      </c>
+      <c r="P28">
+        <v>13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1561,6 +1703,12 @@
       <c r="N29">
         <v>0</v>
       </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1611,6 +1759,12 @@
       <c r="N30">
         <v>0</v>
       </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1681,6 +1835,12 @@
       <c r="N32">
         <v>22</v>
       </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <v>17</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1731,6 +1891,12 @@
       <c r="N33">
         <v>1</v>
       </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1781,6 +1947,12 @@
       <c r="N34">
         <v>0</v>
       </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1831,6 +2003,12 @@
       <c r="N35">
         <v>0</v>
       </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1863,6 +2041,12 @@
       <c r="N36">
         <v>0</v>
       </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1913,6 +2097,12 @@
       <c r="N37">
         <v>0</v>
       </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1963,6 +2153,12 @@
       <c r="N38">
         <v>0</v>
       </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2010,6 +2206,12 @@
       <c r="N39">
         <v>0</v>
       </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2060,6 +2262,12 @@
       <c r="N40">
         <v>0</v>
       </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2110,6 +2318,12 @@
       <c r="N41">
         <v>0</v>
       </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2160,6 +2374,12 @@
       <c r="N42">
         <v>0</v>
       </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2210,6 +2430,12 @@
       <c r="N43">
         <v>0</v>
       </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2260,6 +2486,12 @@
       <c r="N44">
         <v>0</v>
       </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2310,6 +2542,12 @@
       <c r="N45">
         <v>0</v>
       </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2357,6 +2595,12 @@
       <c r="N46">
         <v>0</v>
       </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2395,6 +2639,9 @@
       <c r="N47">
         <v>0</v>
       </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2445,6 +2692,12 @@
       <c r="N48">
         <v>0</v>
       </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2477,6 +2730,12 @@
       <c r="N49">
         <v>0</v>
       </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2524,6 +2783,12 @@
       <c r="N50">
         <v>0</v>
       </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2568,6 +2833,12 @@
       <c r="N51">
         <v>0</v>
       </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2616,6 +2887,12 @@
         <v>0</v>
       </c>
       <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,6 +438,21 @@
           <t>13</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -494,6 +509,15 @@
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,7 +565,19 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +636,15 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -656,6 +701,15 @@
       <c r="P5">
         <v>0</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -712,6 +766,15 @@
       <c r="P6">
         <v>36</v>
       </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
+        <v>16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -765,6 +828,15 @@
       <c r="P7">
         <v>2</v>
       </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -818,6 +890,15 @@
       <c r="P8">
         <v>16</v>
       </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>18</v>
+      </c>
+      <c r="S8">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -874,6 +955,15 @@
       <c r="P9">
         <v>0</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -927,6 +1017,12 @@
       <c r="P10">
         <v>0</v>
       </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -974,6 +1070,9 @@
       <c r="P11">
         <v>0</v>
       </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -997,6 +1096,9 @@
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1035,6 +1137,15 @@
       <c r="O13">
         <v>0</v>
       </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1082,6 +1193,12 @@
       <c r="P14">
         <v>0</v>
       </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1120,6 +1237,12 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1152,6 +1275,9 @@
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1196,6 +1322,12 @@
       <c r="P17">
         <v>0</v>
       </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1219,6 +1351,9 @@
       <c r="O18">
         <v>0</v>
       </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1289,6 +1424,12 @@
       <c r="P20">
         <v>0</v>
       </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1336,6 +1477,12 @@
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1421,6 +1568,15 @@
       <c r="P23">
         <v>0</v>
       </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1468,6 +1624,15 @@
       <c r="P24">
         <v>0</v>
       </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1488,6 +1653,9 @@
       <c r="N25">
         <v>0</v>
       </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1539,10 +1707,16 @@
         <v>18</v>
       </c>
       <c r="O26">
+        <v>10</v>
+      </c>
+      <c r="P26">
         <v>2</v>
       </c>
-      <c r="P26">
-        <v>3</v>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1597,6 +1771,15 @@
       <c r="P27">
         <v>6</v>
       </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1653,6 +1836,15 @@
       <c r="P28">
         <v>13</v>
       </c>
+      <c r="Q28">
+        <v>17</v>
+      </c>
+      <c r="R28">
+        <v>14</v>
+      </c>
+      <c r="S28">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1667,7 +1859,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LIGA CONTRA EL CANCER SECCIONAL RISARALDA</t>
+          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
         </is>
       </c>
       <c r="D29">
@@ -1707,6 +1899,15 @@
         <v>0</v>
       </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
         <v>0</v>
       </c>
     </row>
@@ -1765,6 +1966,15 @@
       <c r="P30">
         <v>0</v>
       </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1785,6 +1995,9 @@
       <c r="N31">
         <v>0</v>
       </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1841,6 +2054,15 @@
       <c r="P32">
         <v>17</v>
       </c>
+      <c r="Q32">
+        <v>13</v>
+      </c>
+      <c r="R32">
+        <v>26</v>
+      </c>
+      <c r="S32">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1897,6 +2119,15 @@
       <c r="P33">
         <v>2</v>
       </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1953,6 +2184,12 @@
       <c r="P34">
         <v>0</v>
       </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2009,85 +2246,61 @@
       <c r="P35">
         <v>0</v>
       </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6600102411</t>
+          <t>6600102402</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
-        </is>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
+          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
+        </is>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="S36">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0</v>
       </c>
@@ -2101,6 +2314,15 @@
         <v>0</v>
       </c>
       <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
         <v>0</v>
       </c>
     </row>
@@ -2112,7 +2334,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2157,23 +2379,32 @@
         <v>0</v>
       </c>
       <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GRUPO EMI</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D39">
@@ -2188,6 +2419,9 @@
       <c r="G39">
         <v>0</v>
       </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
       <c r="I39">
         <v>0</v>
       </c>
@@ -2210,13 +2444,22 @@
         <v>0</v>
       </c>
       <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2226,7 +2469,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>GRUPO EMI</t>
         </is>
       </c>
       <c r="D40">
@@ -2241,9 +2484,6 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
         <v>0</v>
       </c>
@@ -2266,6 +2506,15 @@
         <v>0</v>
       </c>
       <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
         <v>0</v>
       </c>
     </row>
@@ -2277,12 +2526,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D41">
@@ -2322,6 +2571,15 @@
         <v>0</v>
       </c>
       <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
         <v>0</v>
       </c>
     </row>
@@ -2333,12 +2591,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D42">
@@ -2378,6 +2636,15 @@
         <v>0</v>
       </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
         <v>0</v>
       </c>
     </row>
@@ -2389,12 +2656,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D43">
@@ -2434,23 +2701,32 @@
         <v>0</v>
       </c>
       <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D44">
@@ -2490,13 +2766,22 @@
         <v>0</v>
       </c>
       <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2506,7 +2791,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D45">
@@ -2546,13 +2831,22 @@
         <v>0</v>
       </c>
       <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2562,7 +2856,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>NEUROMEDICA SAS</t>
         </is>
       </c>
       <c r="D46">
@@ -2571,6 +2865,9 @@
       <c r="E46">
         <v>0</v>
       </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
       <c r="G46">
         <v>0</v>
       </c>
@@ -2599,13 +2896,22 @@
         <v>0</v>
       </c>
       <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2615,10 +2921,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
-        </is>
-      </c>
-      <c r="F47">
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
         <v>0</v>
       </c>
       <c r="G47">
@@ -2627,26 +2936,41 @@
       <c r="H47">
         <v>0</v>
       </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
       </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
       <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="S47">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2656,14 +2980,8 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
+          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+        </is>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2672,19 +2990,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -2692,17 +3004,20 @@
       <c r="N48">
         <v>0</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
       <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6600103334</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2712,17 +3027,35 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CLINICA CENTRAL DEL EJE SAS</t>
-        </is>
+          <t>CLINICA LOS NEVADOS SAS</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -2735,38 +3068,32 @@
       </c>
       <c r="P49">
         <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103334</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
+        </is>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2787,23 +3114,32 @@
         <v>0</v>
       </c>
       <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600161600</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>EPMSC PEREIRA</t>
         </is>
       </c>
       <c r="D51">
@@ -2827,6 +3163,9 @@
       <c r="K51">
         <v>0</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
       <c r="M51">
         <v>0</v>
       </c>
@@ -2837,62 +3176,136 @@
         <v>0</v>
       </c>
       <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,6 +453,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,6 +523,9 @@
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -580,6 +588,9 @@
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -645,6 +656,9 @@
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +724,9 @@
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -775,6 +792,9 @@
       <c r="S6">
         <v>16</v>
       </c>
+      <c r="T6">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -837,6 +857,9 @@
       <c r="S7">
         <v>1</v>
       </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -899,6 +922,9 @@
       <c r="S8">
         <v>28</v>
       </c>
+      <c r="T8">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -964,6 +990,9 @@
       <c r="S9">
         <v>0</v>
       </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1023,6 +1052,9 @@
       <c r="R10">
         <v>0</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1073,6 +1105,9 @@
       <c r="R11">
         <v>0</v>
       </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1099,6 +1134,9 @@
       <c r="Q12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1146,6 +1184,9 @@
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1199,6 +1240,9 @@
       <c r="R14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1243,6 +1287,9 @@
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1278,6 +1325,9 @@
       <c r="R16">
         <v>0</v>
       </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1328,6 +1378,9 @@
       <c r="R17">
         <v>0</v>
       </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1383,6 +1436,9 @@
       <c r="O19">
         <v>0</v>
       </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1430,6 +1486,9 @@
       <c r="R20">
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1483,6 +1542,9 @@
       <c r="R21">
         <v>0</v>
       </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1512,6 +1574,9 @@
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1577,6 +1642,9 @@
       <c r="S23">
         <v>1</v>
       </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1633,6 +1701,9 @@
       <c r="S24">
         <v>0</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1656,6 +1727,9 @@
       <c r="R25">
         <v>0</v>
       </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1713,9 +1787,12 @@
         <v>2</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <v>0</v>
       </c>
     </row>
@@ -1780,6 +1857,9 @@
       <c r="S27">
         <v>14</v>
       </c>
+      <c r="T27">
+        <v>6</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1845,6 +1925,9 @@
       <c r="S28">
         <v>20</v>
       </c>
+      <c r="T28">
+        <v>39</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1910,6 +1993,9 @@
       <c r="S29">
         <v>0</v>
       </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1975,6 +2061,9 @@
       <c r="S30">
         <v>0</v>
       </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2063,6 +2152,9 @@
       <c r="S32">
         <v>16</v>
       </c>
+      <c r="T32">
+        <v>52</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2128,6 +2220,9 @@
       <c r="S33">
         <v>4</v>
       </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2190,6 +2285,9 @@
       <c r="R34">
         <v>0</v>
       </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2255,6 +2353,9 @@
       <c r="S35">
         <v>0</v>
       </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2278,6 +2379,9 @@
       <c r="S36">
         <v>0</v>
       </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2325,6 +2429,9 @@
       <c r="S37">
         <v>0</v>
       </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2390,6 +2497,9 @@
       <c r="S38">
         <v>0</v>
       </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2455,6 +2565,9 @@
       <c r="S39">
         <v>0</v>
       </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2582,6 +2695,9 @@
       <c r="S41">
         <v>0</v>
       </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2647,6 +2763,9 @@
       <c r="S42">
         <v>0</v>
       </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2712,6 +2831,9 @@
       <c r="S43">
         <v>0</v>
       </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2777,6 +2899,9 @@
       <c r="S44">
         <v>0</v>
       </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2842,6 +2967,9 @@
       <c r="S45">
         <v>0</v>
       </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2907,6 +3035,9 @@
       <c r="S46">
         <v>0</v>
       </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2966,6 +3097,9 @@
       <c r="S47">
         <v>0</v>
       </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3013,6 +3147,9 @@
       <c r="R48">
         <v>0</v>
       </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3078,6 +3215,9 @@
       <c r="S49">
         <v>1</v>
       </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3125,6 +3265,9 @@
       <c r="S50">
         <v>0</v>
       </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3187,6 +3330,9 @@
       <c r="S51">
         <v>0</v>
       </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3243,6 +3389,9 @@
       <c r="S52">
         <v>0</v>
       </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3306,6 +3455,9 @@
         <v>0</v>
       </c>
       <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,6 +458,11 @@
           <t>17</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,9 @@
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -659,6 +667,9 @@
       <c r="T4">
         <v>0</v>
       </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -727,6 +738,9 @@
       <c r="T5">
         <v>0</v>
       </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -795,6 +809,9 @@
       <c r="T6">
         <v>21</v>
       </c>
+      <c r="U6">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -860,6 +877,9 @@
       <c r="T7">
         <v>3</v>
       </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -925,6 +945,9 @@
       <c r="T8">
         <v>29</v>
       </c>
+      <c r="U8">
+        <v>24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1055,6 +1078,9 @@
       <c r="T10">
         <v>0</v>
       </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1108,6 +1134,9 @@
       <c r="T11">
         <v>0</v>
       </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1137,6 +1166,9 @@
       <c r="T12">
         <v>0</v>
       </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1187,6 +1219,9 @@
       <c r="T13">
         <v>0</v>
       </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1381,6 +1416,9 @@
       <c r="T17">
         <v>0</v>
       </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1489,6 +1527,9 @@
       <c r="T20">
         <v>0</v>
       </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1577,6 +1618,9 @@
       <c r="T22">
         <v>0</v>
       </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1645,6 +1689,9 @@
       <c r="T23">
         <v>4</v>
       </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1795,6 +1842,9 @@
       <c r="T26">
         <v>0</v>
       </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1860,6 +1910,9 @@
       <c r="T27">
         <v>6</v>
       </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1928,6 +1981,9 @@
       <c r="T28">
         <v>39</v>
       </c>
+      <c r="U28">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1996,6 +2052,9 @@
       <c r="T29">
         <v>0</v>
       </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2064,6 +2123,9 @@
       <c r="T30">
         <v>0</v>
       </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2153,7 +2215,10 @@
         <v>16</v>
       </c>
       <c r="T32">
-        <v>52</v>
+        <v>26</v>
+      </c>
+      <c r="U32">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2223,6 +2288,9 @@
       <c r="T33">
         <v>1</v>
       </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2288,6 +2356,9 @@
       <c r="T34">
         <v>0</v>
       </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2356,6 +2427,9 @@
       <c r="T35">
         <v>0</v>
       </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2432,6 +2506,9 @@
       <c r="T37">
         <v>0</v>
       </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2500,6 +2577,9 @@
       <c r="T38">
         <v>0</v>
       </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2568,6 +2648,9 @@
       <c r="T39">
         <v>0</v>
       </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2630,6 +2713,12 @@
       <c r="S40">
         <v>0</v>
       </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2698,6 +2787,9 @@
       <c r="T41">
         <v>0</v>
       </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2766,6 +2858,9 @@
       <c r="T42">
         <v>0</v>
       </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2834,6 +2929,9 @@
       <c r="T43">
         <v>0</v>
       </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2902,6 +3000,9 @@
       <c r="T44">
         <v>0</v>
       </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2970,6 +3071,9 @@
       <c r="T45">
         <v>0</v>
       </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3038,6 +3142,9 @@
       <c r="T46">
         <v>0</v>
       </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3100,6 +3207,9 @@
       <c r="T47">
         <v>0</v>
       </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3150,6 +3260,9 @@
       <c r="T48">
         <v>0</v>
       </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3218,6 +3331,9 @@
       <c r="T49">
         <v>1</v>
       </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3268,86 +3384,39 @@
       <c r="T50">
         <v>0</v>
       </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103414</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>EPMSC PEREIRA</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51">
+          <t>01</t>
+        </is>
+      </c>
+      <c r="U51">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600161600</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>EPMSC PEREIRA</t>
         </is>
       </c>
       <c r="D52">
@@ -3371,6 +3440,9 @@
       <c r="K52">
         <v>0</v>
       </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
       <c r="M52">
         <v>0</v>
       </c>
@@ -3386,78 +3458,149 @@
       <c r="Q52">
         <v>0</v>
       </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,6 +463,11 @@
           <t>18</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -534,6 +539,9 @@
       <c r="U2">
         <v>0</v>
       </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -599,6 +607,9 @@
       <c r="T3">
         <v>0</v>
       </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -670,6 +681,9 @@
       <c r="U4">
         <v>0</v>
       </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -741,6 +755,9 @@
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -812,6 +829,9 @@
       <c r="U6">
         <v>13</v>
       </c>
+      <c r="V6">
+        <v>22</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -880,6 +900,9 @@
       <c r="U7">
         <v>4</v>
       </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -948,6 +971,9 @@
       <c r="U8">
         <v>24</v>
       </c>
+      <c r="V8">
+        <v>27</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1016,6 +1042,9 @@
       <c r="T9">
         <v>0</v>
       </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1081,6 +1110,9 @@
       <c r="U10">
         <v>0</v>
       </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1137,6 +1169,9 @@
       <c r="U11">
         <v>0</v>
       </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1222,6 +1257,9 @@
       <c r="U13">
         <v>0</v>
       </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1278,6 +1316,9 @@
       <c r="T14">
         <v>0</v>
       </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1325,6 +1366,9 @@
       <c r="T15">
         <v>0</v>
       </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1419,6 +1463,9 @@
       <c r="U17">
         <v>0</v>
       </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1530,6 +1577,9 @@
       <c r="U20">
         <v>0</v>
       </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1692,6 +1742,9 @@
       <c r="U23">
         <v>0</v>
       </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1751,6 +1804,9 @@
       <c r="T24">
         <v>0</v>
       </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1845,6 +1901,9 @@
       <c r="U26">
         <v>0</v>
       </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1913,6 +1972,9 @@
       <c r="U27">
         <v>5</v>
       </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1984,6 +2046,9 @@
       <c r="U28">
         <v>22</v>
       </c>
+      <c r="V28">
+        <v>22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2055,6 +2120,9 @@
       <c r="U29">
         <v>0</v>
       </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2126,6 +2194,9 @@
       <c r="U30">
         <v>0</v>
       </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2220,6 +2291,9 @@
       <c r="U32">
         <v>9</v>
       </c>
+      <c r="V32">
+        <v>12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2291,6 +2365,9 @@
       <c r="U33">
         <v>1</v>
       </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2359,6 +2436,9 @@
       <c r="U34">
         <v>0</v>
       </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2430,6 +2510,9 @@
       <c r="U35">
         <v>0</v>
       </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2509,6 +2592,9 @@
       <c r="U37">
         <v>0</v>
       </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2580,6 +2666,9 @@
       <c r="U38">
         <v>0</v>
       </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2651,6 +2740,9 @@
       <c r="U39">
         <v>0</v>
       </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2719,6 +2811,9 @@
       <c r="U40">
         <v>0</v>
       </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2790,6 +2885,9 @@
       <c r="U41">
         <v>0</v>
       </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2861,6 +2959,9 @@
       <c r="U42">
         <v>0</v>
       </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2932,6 +3033,9 @@
       <c r="U43">
         <v>0</v>
       </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3003,6 +3107,9 @@
       <c r="U44">
         <v>0</v>
       </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3074,6 +3181,9 @@
       <c r="U45">
         <v>0</v>
       </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3145,6 +3255,9 @@
       <c r="U46">
         <v>0</v>
       </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3210,6 +3323,9 @@
       <c r="U47">
         <v>0</v>
       </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3263,6 +3379,9 @@
       <c r="U48">
         <v>0</v>
       </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3334,6 +3453,9 @@
       <c r="U49">
         <v>0</v>
       </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3387,6 +3509,9 @@
       <c r="U50">
         <v>0</v>
       </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3402,6 +3527,9 @@
       <c r="U51">
         <v>0</v>
       </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3470,6 +3598,9 @@
       <c r="U52">
         <v>0</v>
       </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3532,6 +3663,9 @@
       <c r="U53">
         <v>0</v>
       </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3601,6 +3735,9 @@
         <v>0</v>
       </c>
       <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,6 +468,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +547,9 @@
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -684,6 +692,9 @@
       <c r="V4">
         <v>0</v>
       </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -758,6 +769,9 @@
       <c r="V5">
         <v>0</v>
       </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -832,6 +846,9 @@
       <c r="V6">
         <v>22</v>
       </c>
+      <c r="W6">
+        <v>32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -903,6 +920,9 @@
       <c r="V7">
         <v>4</v>
       </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -974,6 +994,9 @@
       <c r="V8">
         <v>27</v>
       </c>
+      <c r="W8">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1045,6 +1068,9 @@
       <c r="V9">
         <v>0</v>
       </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1113,6 +1139,9 @@
       <c r="V10">
         <v>0</v>
       </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1172,6 +1201,9 @@
       <c r="V11">
         <v>0</v>
       </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1204,6 +1236,9 @@
       <c r="U12">
         <v>0</v>
       </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1260,6 +1295,9 @@
       <c r="V13">
         <v>0</v>
       </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1319,6 +1357,9 @@
       <c r="V14">
         <v>0</v>
       </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1466,6 +1507,9 @@
       <c r="V17">
         <v>0</v>
       </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1580,6 +1624,9 @@
       <c r="V20">
         <v>0</v>
       </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1636,6 +1683,9 @@
       <c r="T21">
         <v>0</v>
       </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1671,6 +1721,9 @@
       <c r="U22">
         <v>0</v>
       </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1745,6 +1798,9 @@
       <c r="V23">
         <v>1</v>
       </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1807,6 +1863,9 @@
       <c r="V24">
         <v>0</v>
       </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1904,6 +1963,9 @@
       <c r="V26">
         <v>0</v>
       </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1975,6 +2037,9 @@
       <c r="V27">
         <v>2</v>
       </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2049,6 +2114,9 @@
       <c r="V28">
         <v>22</v>
       </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2123,6 +2191,9 @@
       <c r="V29">
         <v>0</v>
       </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2197,6 +2268,9 @@
       <c r="V30">
         <v>0</v>
       </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2294,6 +2368,9 @@
       <c r="V32">
         <v>12</v>
       </c>
+      <c r="W32">
+        <v>16</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2368,6 +2445,9 @@
       <c r="V33">
         <v>0</v>
       </c>
+      <c r="W33">
+        <v>2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2439,6 +2519,9 @@
       <c r="V34">
         <v>0</v>
       </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2513,6 +2596,9 @@
       <c r="V35">
         <v>0</v>
       </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2539,6 +2625,9 @@
       <c r="T36">
         <v>0</v>
       </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2595,6 +2684,9 @@
       <c r="V37">
         <v>0</v>
       </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2669,6 +2761,9 @@
       <c r="V38">
         <v>0</v>
       </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2743,6 +2838,9 @@
       <c r="V39">
         <v>0</v>
       </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2888,6 +2986,9 @@
       <c r="V41">
         <v>0</v>
       </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2962,6 +3063,9 @@
       <c r="V42">
         <v>0</v>
       </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3036,6 +3140,9 @@
       <c r="V43">
         <v>0</v>
       </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3110,6 +3217,9 @@
       <c r="V44">
         <v>0</v>
       </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3184,6 +3294,9 @@
       <c r="V45">
         <v>0</v>
       </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3258,6 +3371,9 @@
       <c r="V46">
         <v>0</v>
       </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3326,6 +3442,9 @@
       <c r="V47">
         <v>0</v>
       </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3382,6 +3501,9 @@
       <c r="V48">
         <v>0</v>
       </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3456,6 +3578,9 @@
       <c r="V49">
         <v>0</v>
       </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3512,6 +3637,9 @@
       <c r="V50">
         <v>0</v>
       </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3530,6 +3658,9 @@
       <c r="V51">
         <v>0</v>
       </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3601,6 +3732,9 @@
       <c r="V52">
         <v>0</v>
       </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3666,6 +3800,9 @@
       <c r="V53">
         <v>0</v>
       </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3738,6 +3875,9 @@
         <v>0</v>
       </c>
       <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,6 +473,11 @@
           <t>20</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -550,6 +555,9 @@
       <c r="W2">
         <v>0</v>
       </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -618,6 +626,9 @@
       <c r="V3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -695,6 +706,9 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -772,6 +786,9 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -849,6 +866,9 @@
       <c r="W6">
         <v>32</v>
       </c>
+      <c r="X6">
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -923,6 +943,9 @@
       <c r="W7">
         <v>2</v>
       </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -997,6 +1020,9 @@
       <c r="W8">
         <v>22</v>
       </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1071,6 +1097,9 @@
       <c r="W9">
         <v>0</v>
       </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1142,6 +1171,9 @@
       <c r="W10">
         <v>0</v>
       </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1204,6 +1236,9 @@
       <c r="W11">
         <v>0</v>
       </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1239,6 +1274,9 @@
       <c r="W12">
         <v>0</v>
       </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1298,6 +1336,9 @@
       <c r="W13">
         <v>0</v>
       </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1360,6 +1401,9 @@
       <c r="W14">
         <v>0</v>
       </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1410,6 +1454,9 @@
       <c r="V15">
         <v>0</v>
       </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1448,6 +1495,9 @@
       <c r="T16">
         <v>0</v>
       </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1568,6 +1618,9 @@
       <c r="T19">
         <v>0</v>
       </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1577,54 +1630,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ARABIA</t>
-        </is>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
+          <t>PUESTO DE SALUD LA BELLA</t>
+        </is>
+      </c>
+      <c r="X20">
         <v>0</v>
       </c>
     </row>
@@ -1636,29 +1650,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ALTAGRACIA</t>
-        </is>
+          <t>PUESTO DE SALUD ARABIA</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -1683,7 +1691,16 @@
       <c r="T21">
         <v>0</v>
       </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
       <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>0</v>
       </c>
     </row>
@@ -1695,13 +1712,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD MORELIA</t>
-        </is>
+          <t>PUESTO DE SALUD ALTAGRACIA</t>
+        </is>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1709,19 +1741,28 @@
       <c r="M22">
         <v>0</v>
       </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
       <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>0</v>
       </c>
     </row>
@@ -1733,70 +1774,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HOSPITAL DEL CENTRO</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
+          <t>PUESTO DE SALUD MORELIA</t>
+        </is>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
       <c r="T23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>0</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -1810,22 +1812,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
-        </is>
+          <t>HOSPITAL DEL CENTRO</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1834,37 +1845,43 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1875,102 +1892,96 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD EL REMANSO</t>
-        </is>
+          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
       <c r="R25">
         <v>0</v>
       </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6600100361</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CLINICA LOS ROSALES</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>13</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>9</v>
-      </c>
-      <c r="L26">
-        <v>7</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
+          <t>CENTRO DE SALUD EL REMANSO</t>
+        </is>
       </c>
       <c r="N26">
-        <v>18</v>
-      </c>
-      <c r="O26">
-        <v>10</v>
-      </c>
-      <c r="P26">
-        <v>2</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="R26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6600100663</t>
+          <t>6600100361</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1980,71 +1991,74 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
+          <t>CLINICA LOS ROSALES</t>
         </is>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
         <v>5</v>
       </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="J27">
+      <c r="N27">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+      <c r="P27">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>9</v>
-      </c>
-      <c r="P27">
-        <v>6</v>
-      </c>
       <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6600100762</t>
+          <t>6600100663</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2054,74 +2068,74 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
+          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
         </is>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J28">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>12</v>
-      </c>
-      <c r="L28">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>9</v>
       </c>
       <c r="P28">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
         <v>14</v>
       </c>
-      <c r="S28">
-        <v>20</v>
-      </c>
       <c r="T28">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="U28">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6600100785</t>
+          <t>6600100762</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2131,74 +2145,77 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
+          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
         </is>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6600100811</t>
+          <t>6600100785</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2208,7 +2225,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
+          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
         </is>
       </c>
       <c r="D30">
@@ -2269,13 +2286,16 @@
         <v>0</v>
       </c>
       <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6600101567</t>
+          <t>6600100811</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2285,97 +2305,100 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SOCIEDAD INTEGRAL DE ESPECIALISTAS EN SALUD SAS</t>
-        </is>
+          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
       <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6600101587</t>
+          <t>6600101567</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>18</v>
-      </c>
-      <c r="F32">
-        <v>25</v>
-      </c>
-      <c r="G32">
-        <v>23</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>17</v>
-      </c>
-      <c r="J32">
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <v>23</v>
-      </c>
-      <c r="L32">
-        <v>17</v>
-      </c>
-      <c r="M32">
-        <v>26</v>
+          <t>SOCIEDAD INTEGRAL DE ESPECIALISTAS EN SALUD SAS</t>
+        </is>
       </c>
       <c r="N32">
-        <v>22</v>
-      </c>
-      <c r="O32">
-        <v>10</v>
-      </c>
-      <c r="P32">
-        <v>17</v>
-      </c>
-      <c r="Q32">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>26</v>
-      </c>
-      <c r="S32">
-        <v>16</v>
-      </c>
-      <c r="T32">
-        <v>26</v>
-      </c>
-      <c r="U32">
-        <v>9</v>
-      </c>
-      <c r="V32">
-        <v>12</v>
-      </c>
-      <c r="W32">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6600101736</t>
+          <t>6600101587</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2385,148 +2408,97 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>2</v>
-      </c>
-      <c r="Q33">
-        <v>4</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>4</v>
-      </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>2</v>
+          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+        </is>
+      </c>
+      <c r="X33">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6600101781</t>
+          <t>6600101587</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
         </is>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="S34">
+        <v>16</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="X34">
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6600101912</t>
+          <t>6600101736</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2536,7 +2508,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RED MEDICA VITAL SAS</t>
+          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
         </is>
       </c>
       <c r="D35">
@@ -2564,93 +2536,162 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6600102402</t>
+          <t>6600101781</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
-        </is>
+          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
-      <c r="S36">
+      <c r="R36">
         <v>0</v>
       </c>
       <c r="T36">
         <v>0</v>
       </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
       <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6600102411</t>
+          <t>6600101912</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
-        </is>
+          <t>RED MEDICA VITAL SAS</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
       <c r="L37">
         <v>0</v>
       </c>
@@ -2685,90 +2726,48 @@
         <v>0</v>
       </c>
       <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102402</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
+          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
+        </is>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
       <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2778,33 +2777,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
       <c r="L39">
         <v>0</v>
       </c>
@@ -2839,13 +2820,16 @@
         <v>0</v>
       </c>
       <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2855,7 +2839,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GRUPO EMI</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D40">
@@ -2870,6 +2854,9 @@
       <c r="G40">
         <v>0</v>
       </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
       <c r="I40">
         <v>0</v>
       </c>
@@ -2910,23 +2897,29 @@
         <v>0</v>
       </c>
       <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D41">
@@ -2993,17 +2986,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>GRUPO EMI</t>
         </is>
       </c>
       <c r="D42">
@@ -3018,9 +3011,6 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
         <v>0</v>
       </c>
@@ -3063,7 +3053,7 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0</v>
       </c>
     </row>
@@ -3075,12 +3065,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D43">
@@ -3141,6 +3131,9 @@
         <v>0</v>
       </c>
       <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
         <v>0</v>
       </c>
     </row>
@@ -3152,12 +3145,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D44">
@@ -3218,23 +3211,26 @@
         <v>0</v>
       </c>
       <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D45">
@@ -3295,23 +3291,26 @@
         <v>0</v>
       </c>
       <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D46">
@@ -3372,13 +3371,16 @@
         <v>0</v>
       </c>
       <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3388,7 +3390,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D47">
@@ -3397,6 +3399,9 @@
       <c r="E47">
         <v>0</v>
       </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -3430,6 +3435,9 @@
       <c r="Q47">
         <v>0</v>
       </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
       <c r="S47">
         <v>0</v>
       </c>
@@ -3443,13 +3451,16 @@
         <v>0</v>
       </c>
       <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3459,8 +3470,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
-        </is>
+          <t>NEUROMEDICA SAS</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3471,18 +3488,27 @@
       <c r="H48">
         <v>0</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
       <c r="P48">
         <v>0</v>
       </c>
@@ -3492,6 +3518,9 @@
       <c r="R48">
         <v>0</v>
       </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
       <c r="T48">
         <v>0</v>
       </c>
@@ -3502,13 +3531,16 @@
         <v>0</v>
       </c>
       <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3518,7 +3550,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
         </is>
       </c>
       <c r="D49">
@@ -3527,14 +3559,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3543,10 +3572,10 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3563,14 +3592,11 @@
       <c r="Q49">
         <v>0</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
       <c r="S49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -3579,13 +3605,16 @@
         <v>0</v>
       </c>
       <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6600103334</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3595,8 +3624,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CLINICA CENTRAL DEL EJE SAS</t>
-        </is>
+          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3604,18 +3642,12 @@
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
       <c r="P50">
         <v>0</v>
       </c>
@@ -3625,9 +3657,6 @@
       <c r="R50">
         <v>0</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
       <c r="T50">
         <v>0</v>
       </c>
@@ -3638,13 +3667,16 @@
         <v>0</v>
       </c>
       <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6600103414</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3652,6 +3684,62 @@
           <t>01</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CLINICA LOS NEVADOS SAS</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
       <c r="U51">
         <v>0</v>
       </c>
@@ -3659,39 +3747,27 @@
         <v>0</v>
       </c>
       <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103334</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
+        </is>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3733,13 +3809,16 @@
         <v>0</v>
       </c>
       <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600103414</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3747,53 +3826,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
       <c r="U53">
         <v>0</v>
       </c>
@@ -3801,83 +3833,237 @@
         <v>0</v>
       </c>
       <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>6600161600</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>EPMSC PEREIRA</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X56"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,6 +478,11 @@
           <t>21</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -558,6 +563,9 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -789,6 +797,9 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -869,6 +880,9 @@
       <c r="X6">
         <v>44</v>
       </c>
+      <c r="Y6">
+        <v>27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -946,6 +960,9 @@
       <c r="X7">
         <v>1</v>
       </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1023,6 +1040,9 @@
       <c r="X8">
         <v>20</v>
       </c>
+      <c r="Y8">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1174,6 +1194,9 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1239,6 +1262,9 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1277,6 +1303,9 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1339,6 +1368,9 @@
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1404,6 +1436,9 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1457,6 +1492,9 @@
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1498,6 +1536,9 @@
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1560,6 +1601,9 @@
       <c r="W17">
         <v>0</v>
       </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1621,6 +1665,9 @@
       <c r="X19">
         <v>0</v>
       </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1703,6 +1750,9 @@
       <c r="X21">
         <v>0</v>
       </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1765,6 +1815,9 @@
       <c r="X22">
         <v>0</v>
       </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1803,6 +1856,9 @@
       <c r="W23">
         <v>0</v>
       </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1883,6 +1939,9 @@
       <c r="X24">
         <v>1</v>
       </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2054,6 +2113,9 @@
       <c r="X27">
         <v>0</v>
       </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2291,6 +2353,9 @@
       <c r="X30">
         <v>0</v>
       </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2371,6 +2436,9 @@
       <c r="X31">
         <v>0</v>
       </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2414,6 +2482,9 @@
       <c r="X33">
         <v>0</v>
       </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2494,6 +2565,9 @@
       <c r="X34">
         <v>23</v>
       </c>
+      <c r="Y34">
+        <v>18</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2651,6 +2725,9 @@
       <c r="X36">
         <v>0</v>
       </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2731,6 +2808,9 @@
       <c r="X37">
         <v>0</v>
       </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2763,6 +2843,9 @@
       <c r="X38">
         <v>0</v>
       </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2825,6 +2908,9 @@
       <c r="X39">
         <v>0</v>
       </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2905,6 +2991,9 @@
       <c r="X40">
         <v>0</v>
       </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2982,6 +3071,9 @@
       <c r="W41">
         <v>0</v>
       </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3056,6 +3148,9 @@
       <c r="X42">
         <v>0</v>
       </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3136,6 +3231,9 @@
       <c r="X43">
         <v>0</v>
       </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3216,6 +3314,9 @@
       <c r="X44">
         <v>0</v>
       </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3296,6 +3397,9 @@
       <c r="X45">
         <v>0</v>
       </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3376,6 +3480,9 @@
       <c r="X46">
         <v>0</v>
       </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3456,6 +3563,9 @@
       <c r="X47">
         <v>0</v>
       </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3536,6 +3646,9 @@
       <c r="X48">
         <v>0</v>
       </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3610,6 +3723,9 @@
       <c r="X49">
         <v>0</v>
       </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3752,6 +3868,9 @@
       <c r="X51">
         <v>0</v>
       </c>
+      <c r="Y51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3814,6 +3933,9 @@
       <c r="X52">
         <v>0</v>
       </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3838,6 +3960,9 @@
       <c r="X53">
         <v>0</v>
       </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3915,6 +4040,9 @@
       <c r="X54">
         <v>0</v>
       </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3986,6 +4114,9 @@
       <c r="X55">
         <v>0</v>
       </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4064,6 +4195,9 @@
         <v>0</v>
       </c>
       <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,6 +483,16 @@
           <t>22</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -566,6 +576,12 @@
       <c r="Y2">
         <v>0</v>
       </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -637,6 +653,9 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -717,6 +736,12 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -800,6 +825,12 @@
       <c r="Y5">
         <v>0</v>
       </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -883,6 +914,12 @@
       <c r="Y6">
         <v>27</v>
       </c>
+      <c r="Z6">
+        <v>32</v>
+      </c>
+      <c r="AA6">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -963,6 +1000,12 @@
       <c r="Y7">
         <v>1</v>
       </c>
+      <c r="Z7">
+        <v>2</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1043,6 +1086,12 @@
       <c r="Y8">
         <v>18</v>
       </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1120,6 +1169,12 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1197,6 +1252,9 @@
       <c r="Y10">
         <v>0</v>
       </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1265,6 +1323,9 @@
       <c r="Y11">
         <v>0</v>
       </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1306,6 +1367,12 @@
       <c r="Y12">
         <v>0</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1371,6 +1438,12 @@
       <c r="Y13">
         <v>0</v>
       </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1439,6 +1512,12 @@
       <c r="Y14">
         <v>0</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1495,6 +1574,12 @@
       <c r="Y15">
         <v>0</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1539,6 +1624,12 @@
       <c r="Y16">
         <v>0</v>
       </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1604,6 +1695,12 @@
       <c r="Y17">
         <v>0</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1630,6 +1727,9 @@
       <c r="Q18">
         <v>0</v>
       </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1668,6 +1768,9 @@
       <c r="Y19">
         <v>0</v>
       </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1753,6 +1856,12 @@
       <c r="Y21">
         <v>0</v>
       </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1818,6 +1927,12 @@
       <c r="Y22">
         <v>0</v>
       </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1859,6 +1974,9 @@
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1942,6 +2060,12 @@
       <c r="Y24">
         <v>3</v>
       </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2010,6 +2134,12 @@
       <c r="X25">
         <v>0</v>
       </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2116,6 +2246,12 @@
       <c r="Y27">
         <v>0</v>
       </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2193,6 +2329,15 @@
       <c r="X28">
         <v>2</v>
       </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2273,6 +2418,15 @@
       <c r="X29">
         <v>14</v>
       </c>
+      <c r="Y29">
+        <v>17</v>
+      </c>
+      <c r="Z29">
+        <v>16</v>
+      </c>
+      <c r="AA29">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2356,6 +2510,12 @@
       <c r="Y30">
         <v>0</v>
       </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2439,6 +2599,12 @@
       <c r="Y31">
         <v>0</v>
       </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2485,6 +2651,12 @@
       <c r="Y33">
         <v>0</v>
       </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2568,6 +2740,12 @@
       <c r="Y34">
         <v>18</v>
       </c>
+      <c r="Z34">
+        <v>28</v>
+      </c>
+      <c r="AA34">
+        <v>26</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2648,6 +2826,15 @@
       <c r="X35">
         <v>1</v>
       </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2728,6 +2915,12 @@
       <c r="Y36">
         <v>0</v>
       </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2811,6 +3004,12 @@
       <c r="Y37">
         <v>0</v>
       </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2911,6 +3110,12 @@
       <c r="Y39">
         <v>0</v>
       </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2994,6 +3199,9 @@
       <c r="Y40">
         <v>0</v>
       </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3074,6 +3282,9 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3151,6 +3362,12 @@
       <c r="Y42">
         <v>0</v>
       </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3234,6 +3451,12 @@
       <c r="Y43">
         <v>0</v>
       </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3317,6 +3540,12 @@
       <c r="Y44">
         <v>0</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3400,6 +3629,12 @@
       <c r="Y45">
         <v>0</v>
       </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3483,6 +3718,12 @@
       <c r="Y46">
         <v>0</v>
       </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3566,6 +3807,12 @@
       <c r="Y47">
         <v>0</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3649,6 +3896,12 @@
       <c r="Y48">
         <v>0</v>
       </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3726,6 +3979,9 @@
       <c r="Y49">
         <v>0</v>
       </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3788,6 +4044,12 @@
       <c r="X50">
         <v>0</v>
       </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3871,6 +4133,12 @@
       <c r="Y51">
         <v>1</v>
       </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3936,6 +4204,12 @@
       <c r="Y52">
         <v>0</v>
       </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3963,6 +4237,12 @@
       <c r="Y53">
         <v>0</v>
       </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4043,6 +4323,12 @@
       <c r="Y54">
         <v>0</v>
       </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4117,6 +4403,12 @@
       <c r="Y55">
         <v>0</v>
       </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4198,6 +4490,12 @@
         <v>0</v>
       </c>
       <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AC57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,6 +493,16 @@
           <t>24</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -582,6 +592,12 @@
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -656,6 +672,9 @@
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -742,6 +761,12 @@
       <c r="AA4">
         <v>0</v>
       </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -831,6 +856,12 @@
       <c r="AA5">
         <v>0</v>
       </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -920,6 +951,12 @@
       <c r="AA6">
         <v>21</v>
       </c>
+      <c r="AB6">
+        <v>32</v>
+      </c>
+      <c r="AC6">
+        <v>29</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1006,6 +1043,12 @@
       <c r="AA7">
         <v>6</v>
       </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1092,6 +1135,12 @@
       <c r="AA8">
         <v>4</v>
       </c>
+      <c r="AB8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1175,6 +1224,12 @@
       <c r="AA9">
         <v>0</v>
       </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1326,6 +1381,9 @@
       <c r="Z11">
         <v>0</v>
       </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1444,6 +1502,12 @@
       <c r="AA13">
         <v>0</v>
       </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1518,6 +1582,12 @@
       <c r="AA14">
         <v>0</v>
       </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1580,6 +1650,12 @@
       <c r="AA15">
         <v>0</v>
       </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1630,6 +1706,12 @@
       <c r="AA16">
         <v>0</v>
       </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1701,6 +1783,9 @@
       <c r="AA17">
         <v>0</v>
       </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1800,66 +1885,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ARABIA</t>
-        </is>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
+          <t>PUESTO DE SALUD LA FLORIDA</t>
+        </is>
+      </c>
+      <c r="AC21">
         <v>0</v>
       </c>
     </row>
@@ -1871,29 +1905,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ALTAGRACIA</t>
-        </is>
+          <t>PUESTO DE SALUD ARABIA</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>0</v>
       </c>
@@ -1918,6 +1946,12 @@
       <c r="T22">
         <v>0</v>
       </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
       <c r="W22">
         <v>0</v>
       </c>
@@ -1931,6 +1965,9 @@
         <v>0</v>
       </c>
       <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>0</v>
       </c>
     </row>
@@ -1942,13 +1979,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD MORELIA</t>
-        </is>
+          <t>PUESTO DE SALUD ALTAGRACIA</t>
+        </is>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1956,25 +2008,40 @@
       <c r="M23">
         <v>0</v>
       </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="W23">
         <v>0</v>
       </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
       <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <v>0</v>
       </c>
     </row>
@@ -1986,85 +2053,43 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HOSPITAL DEL CENTRO</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
+          <t>PUESTO DE SALUD MORELIA</t>
+        </is>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
       <c r="T24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
       <c r="Y24">
-        <v>3</v>
-      </c>
-      <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2075,22 +2100,31 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
-        </is>
+          <t>HOSPITAL DEL CENTRO</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2099,46 +2133,58 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25">
         <v>0</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2149,114 +2195,108 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD EL REMANSO</t>
-        </is>
+          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
       <c r="R26">
         <v>0</v>
       </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
       <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6600100361</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CLINICA LOS ROSALES</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>13</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <v>9</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
+          <t>CENTRO DE SALUD EL REMANSO</t>
+        </is>
       </c>
       <c r="N27">
-        <v>18</v>
-      </c>
-      <c r="O27">
-        <v>10</v>
-      </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6600100663</t>
+          <t>6600100361</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2266,83 +2306,86 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
+          <t>CLINICA LOS ROSALES</t>
         </is>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
         <v>5</v>
       </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
+      <c r="N28">
+        <v>18</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+      <c r="P28">
         <v>2</v>
       </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>9</v>
-      </c>
-      <c r="P28">
-        <v>6</v>
-      </c>
       <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6600100762</t>
+          <t>6600100663</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2352,86 +2395,89 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
+          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
         </is>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>12</v>
-      </c>
-      <c r="L29">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="O29">
         <v>9</v>
       </c>
       <c r="P29">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
         <v>14</v>
       </c>
-      <c r="S29">
-        <v>20</v>
-      </c>
       <c r="T29">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="U29">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="V29">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X29">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Y29">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Z29">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6600100785</t>
+          <t>6600100762</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2441,86 +2487,89 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
+          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
         </is>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="AB30">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6600100811</t>
+          <t>6600100785</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2530,7 +2579,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
+          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
         </is>
       </c>
       <c r="D31">
@@ -2603,13 +2652,19 @@
         <v>0</v>
       </c>
       <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6600101567</t>
+          <t>6600100811</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2619,20 +2674,92 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SOCIEDAD INTEGRAL DE ESPECIALISTAS EN SALUD SAS</t>
-        </is>
+          <t>COSMITET LTDA CORPORACION DE SERVICIOS MEDICOS INT</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
       <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6600101587</t>
+          <t>6600101567</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2642,19 +2769,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
-        </is>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
+          <t>SOCIEDAD INTEGRAL DE ESPECIALISTAS EN SALUD SAS</t>
+        </is>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="R33">
         <v>0</v>
       </c>
     </row>
@@ -2666,7 +2787,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2674,172 +2795,124 @@
           <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
         </is>
       </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>18</v>
-      </c>
-      <c r="F34">
-        <v>25</v>
-      </c>
-      <c r="G34">
-        <v>23</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>17</v>
-      </c>
-      <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="K34">
-        <v>23</v>
-      </c>
-      <c r="L34">
-        <v>17</v>
-      </c>
-      <c r="M34">
-        <v>26</v>
-      </c>
-      <c r="N34">
-        <v>22</v>
-      </c>
-      <c r="O34">
-        <v>10</v>
-      </c>
-      <c r="P34">
-        <v>17</v>
-      </c>
-      <c r="Q34">
-        <v>13</v>
-      </c>
-      <c r="R34">
-        <v>26</v>
-      </c>
-      <c r="S34">
-        <v>16</v>
-      </c>
-      <c r="T34">
-        <v>26</v>
-      </c>
-      <c r="U34">
-        <v>9</v>
-      </c>
-      <c r="V34">
-        <v>12</v>
-      </c>
-      <c r="W34">
-        <v>16</v>
-      </c>
       <c r="X34">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6600101736</t>
+          <t>6600101587</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
+          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
         </is>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P35">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W35">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="Y35">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="AB35">
+        <v>15</v>
+      </c>
+      <c r="AC35">
+        <v>27</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6600101781</t>
+          <t>6600101736</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2849,7 +2922,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
         </is>
       </c>
       <c r="D36">
@@ -2877,55 +2950,64 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6600101912</t>
+          <t>6600101781</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2935,7 +3017,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RED MEDICA VITAL SAS</t>
+          <t>SINERGIA GLOBAL EN SALUD SAS</t>
         </is>
       </c>
       <c r="D37">
@@ -2983,9 +3065,6 @@
       <c r="R37">
         <v>0</v>
       </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
       <c r="T37">
         <v>0</v>
       </c>
@@ -3008,34 +3087,88 @@
         <v>0</v>
       </c>
       <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6600102402</t>
+          <t>6600101912</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
-        </is>
+          <t>RED MEDICA VITAL SAS</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
         <v>0</v>
       </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
       <c r="W38">
         <v>0</v>
       </c>
@@ -3043,64 +3176,46 @@
         <v>0</v>
       </c>
       <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600102411</t>
+          <t>6600102402</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
-        </is>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
+          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
+        </is>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
         <v>0</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
       <c r="W39">
         <v>0</v>
       </c>
@@ -3110,53 +3225,35 @@
       <c r="Y39">
         <v>0</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
         <v>0</v>
       </c>
@@ -3200,6 +3297,15 @@
         <v>0</v>
       </c>
       <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
         <v>0</v>
       </c>
     </row>
@@ -3211,7 +3317,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3279,27 +3385,36 @@
       <c r="W41">
         <v>0</v>
       </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GRUPO EMI</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D42">
@@ -3314,6 +3429,9 @@
       <c r="G42">
         <v>0</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="I42">
         <v>0</v>
       </c>
@@ -3356,7 +3474,7 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="X42">
+      <c r="W42">
         <v>0</v>
       </c>
       <c r="Y42">
@@ -3365,14 +3483,14 @@
       <c r="Z42">
         <v>0</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3382,7 +3500,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>GRUPO EMI</t>
         </is>
       </c>
       <c r="D43">
@@ -3397,9 +3515,6 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
         <v>0</v>
       </c>
@@ -3442,9 +3557,6 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
       <c r="X43">
         <v>0</v>
       </c>
@@ -3455,6 +3567,12 @@
         <v>0</v>
       </c>
       <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
         <v>0</v>
       </c>
     </row>
@@ -3466,12 +3584,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D44">
@@ -3544,6 +3662,12 @@
         <v>0</v>
       </c>
       <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
         <v>0</v>
       </c>
     </row>
@@ -3555,12 +3679,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D45">
@@ -3633,6 +3757,12 @@
         <v>0</v>
       </c>
       <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +3774,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D46">
@@ -3722,23 +3852,29 @@
         <v>0</v>
       </c>
       <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D47">
@@ -3811,13 +3947,19 @@
         <v>0</v>
       </c>
       <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3827,7 +3969,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D48">
@@ -3900,13 +4042,19 @@
         <v>0</v>
       </c>
       <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3916,7 +4064,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>NEUROMEDICA SAS</t>
         </is>
       </c>
       <c r="D49">
@@ -3925,6 +4073,9 @@
       <c r="E49">
         <v>0</v>
       </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
       <c r="G49">
         <v>0</v>
       </c>
@@ -3958,6 +4109,9 @@
       <c r="Q49">
         <v>0</v>
       </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
       <c r="S49">
         <v>0</v>
       </c>
@@ -3979,14 +4133,23 @@
       <c r="Y49">
         <v>0</v>
       </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
       <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3996,10 +4159,13 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
-        </is>
-      </c>
-      <c r="F50">
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
         <v>0</v>
       </c>
       <c r="G50">
@@ -4008,25 +4174,34 @@
       <c r="H50">
         <v>0</v>
       </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
       </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
@@ -4047,14 +4222,20 @@
       <c r="Y50">
         <v>0</v>
       </c>
-      <c r="Z50">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4064,14 +4245,8 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
+          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+        </is>
       </c>
       <c r="F51">
         <v>0</v>
@@ -4080,19 +4255,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -4100,9 +4269,6 @@
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
       <c r="P51">
         <v>0</v>
       </c>
@@ -4112,11 +4278,8 @@
       <c r="R51">
         <v>0</v>
       </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
       <c r="T51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -4131,19 +4294,19 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51">
         <v>0</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6600103334</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4153,17 +4316,35 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CLINICA CENTRAL DEL EJE SAS</t>
-        </is>
+          <t>CLINICA LOS NEVADOS SAS</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4184,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4202,19 +4383,25 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
         <v>0</v>
       </c>
       <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6600103414</t>
+          <t>6600103334</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4222,6 +4409,44 @@
           <t>01</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
+        </is>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
       <c r="U53">
         <v>0</v>
       </c>
@@ -4241,72 +4466,25 @@
         <v>0</v>
       </c>
       <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103414</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>EPMSC PEREIRA</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <v>0</v>
+          <t>01</t>
+        </is>
       </c>
       <c r="U54">
         <v>0</v>
@@ -4327,23 +4505,29 @@
         <v>0</v>
       </c>
       <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0</v>
+      </c>
+      <c r="AC54">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600161600</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>EPMSC PEREIRA</t>
         </is>
       </c>
       <c r="D55">
@@ -4367,6 +4551,9 @@
       <c r="K55">
         <v>0</v>
       </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
       <c r="M55">
         <v>0</v>
       </c>
@@ -4382,6 +4569,9 @@
       <c r="Q55">
         <v>0</v>
       </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
       <c r="S55">
         <v>0</v>
       </c>
@@ -4407,95 +4597,193 @@
         <v>0</v>
       </c>
       <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0</v>
+      </c>
+      <c r="AC55">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
-      </c>
-      <c r="U56">
-        <v>0</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC57"/>
+  <dimension ref="A1:AD57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>26</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -598,6 +603,9 @@
       <c r="AC2">
         <v>0</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -675,6 +683,12 @@
       <c r="AB3">
         <v>0</v>
       </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -767,6 +781,9 @@
       <c r="AC4">
         <v>0</v>
       </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -862,6 +879,9 @@
       <c r="AC5">
         <v>0</v>
       </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -957,6 +977,9 @@
       <c r="AC6">
         <v>29</v>
       </c>
+      <c r="AD6">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1049,6 +1072,9 @@
       <c r="AC7">
         <v>1</v>
       </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1141,6 +1167,9 @@
       <c r="AC8">
         <v>5</v>
       </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1230,6 +1259,9 @@
       <c r="AC9">
         <v>0</v>
       </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1310,6 +1342,9 @@
       <c r="Z10">
         <v>0</v>
       </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1588,6 +1623,9 @@
       <c r="AC14">
         <v>0</v>
       </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1656,6 +1694,9 @@
       <c r="AC15">
         <v>0</v>
       </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1712,6 +1753,9 @@
       <c r="AC16">
         <v>0</v>
       </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1786,6 +1830,9 @@
       <c r="AB17">
         <v>0</v>
       </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1970,6 +2017,9 @@
       <c r="AB22">
         <v>0</v>
       </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2044,6 +2094,9 @@
       <c r="AB23">
         <v>0</v>
       </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2091,6 +2144,9 @@
       <c r="AC24">
         <v>0</v>
       </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2186,6 +2242,9 @@
       <c r="AC25">
         <v>3</v>
       </c>
+      <c r="AD25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2266,6 +2325,9 @@
       <c r="AC26">
         <v>0</v>
       </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2381,6 +2443,9 @@
       <c r="AB28">
         <v>0</v>
       </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2473,6 +2538,9 @@
       <c r="AC29">
         <v>1</v>
       </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2565,6 +2633,12 @@
       <c r="AB30">
         <v>14</v>
       </c>
+      <c r="AC30">
+        <v>10</v>
+      </c>
+      <c r="AD30">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2660,6 +2734,9 @@
       <c r="AC31">
         <v>0</v>
       </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2755,6 +2832,9 @@
       <c r="AC32">
         <v>0</v>
       </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2813,6 +2893,9 @@
       <c r="AC34">
         <v>0</v>
       </c>
+      <c r="AD34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2908,6 +2991,9 @@
       <c r="AC35">
         <v>27</v>
       </c>
+      <c r="AD35">
+        <v>23</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3003,6 +3089,9 @@
       <c r="AC36">
         <v>0</v>
       </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3095,6 +3184,9 @@
       <c r="AC37">
         <v>0</v>
       </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3190,6 +3282,9 @@
       <c r="AC38">
         <v>0</v>
       </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3231,6 +3326,9 @@
       <c r="AC39">
         <v>0</v>
       </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3308,6 +3406,9 @@
       <c r="AC40">
         <v>0</v>
       </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3400,6 +3501,9 @@
       <c r="AC41">
         <v>0</v>
       </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3486,6 +3590,12 @@
       <c r="AB42">
         <v>0</v>
       </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3670,6 +3780,9 @@
       <c r="AC44">
         <v>0</v>
       </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3765,6 +3878,9 @@
       <c r="AC45">
         <v>0</v>
       </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3860,6 +3976,9 @@
       <c r="AC46">
         <v>0</v>
       </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3955,6 +4074,9 @@
       <c r="AC47">
         <v>0</v>
       </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4050,6 +4172,9 @@
       <c r="AC48">
         <v>0</v>
       </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4145,6 +4270,9 @@
       <c r="AC49">
         <v>0</v>
       </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4231,6 +4359,9 @@
       <c r="AC50">
         <v>0</v>
       </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4302,6 +4433,9 @@
       <c r="AB51">
         <v>0</v>
       </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4397,6 +4531,9 @@
       <c r="AC52">
         <v>0</v>
       </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4472,6 +4609,9 @@
         <v>0</v>
       </c>
       <c r="AC53">
+        <v>1</v>
+      </c>
+      <c r="AD53">
         <v>0</v>
       </c>
     </row>
@@ -4513,6 +4653,9 @@
       <c r="AC54">
         <v>0</v>
       </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4605,6 +4748,9 @@
       <c r="AC55">
         <v>0</v>
       </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4691,6 +4837,9 @@
       <c r="AC56">
         <v>0</v>
       </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4784,6 +4933,9 @@
         <v>0</v>
       </c>
       <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD57"/>
+  <dimension ref="A1:AE57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,6 +508,11 @@
           <t>27</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,6 +611,9 @@
       <c r="AD2">
         <v>0</v>
       </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -784,6 +792,9 @@
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -882,6 +893,9 @@
       <c r="AD5">
         <v>0</v>
       </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -980,6 +994,9 @@
       <c r="AD6">
         <v>46</v>
       </c>
+      <c r="AE6">
+        <v>23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1075,6 +1092,9 @@
       <c r="AD7">
         <v>4</v>
       </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1170,6 +1190,9 @@
       <c r="AD8">
         <v>2</v>
       </c>
+      <c r="AE8">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1345,6 +1368,9 @@
       <c r="AD10">
         <v>0</v>
       </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1466,6 +1492,9 @@
       <c r="AA12">
         <v>0</v>
       </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1543,6 +1572,9 @@
       <c r="AC13">
         <v>0</v>
       </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1626,6 +1658,9 @@
       <c r="AD14">
         <v>0</v>
       </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1697,6 +1732,9 @@
       <c r="AD15">
         <v>0</v>
       </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1756,6 +1794,9 @@
       <c r="AD16">
         <v>0</v>
       </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1833,6 +1874,9 @@
       <c r="AD17">
         <v>0</v>
       </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1862,6 +1906,9 @@
       <c r="Z18">
         <v>0</v>
       </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2020,6 +2067,9 @@
       <c r="AD22">
         <v>0</v>
       </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2097,6 +2147,9 @@
       <c r="AD23">
         <v>0</v>
       </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2147,6 +2200,9 @@
       <c r="AD24">
         <v>0</v>
       </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2245,6 +2301,9 @@
       <c r="AD25">
         <v>3</v>
       </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2328,6 +2387,9 @@
       <c r="AD26">
         <v>0</v>
       </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2443,8 +2505,14 @@
       <c r="AB28">
         <v>0</v>
       </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
       <c r="AD28">
         <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>163</v>
       </c>
     </row>
     <row r="29">
@@ -2541,6 +2609,9 @@
       <c r="AD29">
         <v>0</v>
       </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2639,6 +2710,9 @@
       <c r="AD30">
         <v>18</v>
       </c>
+      <c r="AE30">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2737,6 +2811,9 @@
       <c r="AD31">
         <v>0</v>
       </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2835,6 +2912,9 @@
       <c r="AD32">
         <v>0</v>
       </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2896,6 +2976,9 @@
       <c r="AD34">
         <v>2</v>
       </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2994,6 +3077,9 @@
       <c r="AD35">
         <v>23</v>
       </c>
+      <c r="AE35">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3092,6 +3178,9 @@
       <c r="AD36">
         <v>1</v>
       </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3187,6 +3276,9 @@
       <c r="AD37">
         <v>0</v>
       </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3285,6 +3377,9 @@
       <c r="AD38">
         <v>0</v>
       </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3329,6 +3424,9 @@
       <c r="AD39">
         <v>0</v>
       </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3409,6 +3507,9 @@
       <c r="AD40">
         <v>0</v>
       </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3504,6 +3605,9 @@
       <c r="AD41">
         <v>0</v>
       </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3596,6 +3700,9 @@
       <c r="AD42">
         <v>0</v>
       </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3685,6 +3792,9 @@
       <c r="AC43">
         <v>0</v>
       </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3783,6 +3893,9 @@
       <c r="AD44">
         <v>0</v>
       </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3881,6 +3994,9 @@
       <c r="AD45">
         <v>0</v>
       </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3979,6 +4095,9 @@
       <c r="AD46">
         <v>0</v>
       </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4077,6 +4196,9 @@
       <c r="AD47">
         <v>0</v>
       </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4175,6 +4297,9 @@
       <c r="AD48">
         <v>0</v>
       </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4273,6 +4398,9 @@
       <c r="AD49">
         <v>0</v>
       </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4362,6 +4490,9 @@
       <c r="AD50">
         <v>0</v>
       </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4534,6 +4665,9 @@
       <c r="AD52">
         <v>0</v>
       </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4614,6 +4748,9 @@
       <c r="AD53">
         <v>0</v>
       </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4656,6 +4793,9 @@
       <c r="AD54">
         <v>0</v>
       </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4751,6 +4891,9 @@
       <c r="AD55">
         <v>0</v>
       </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4840,6 +4983,9 @@
       <c r="AD56">
         <v>0</v>
       </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4936,6 +5082,9 @@
         <v>0</v>
       </c>
       <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE57"/>
+  <dimension ref="A1:AF57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,11 @@
           <t>28</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -614,6 +619,9 @@
       <c r="AE2">
         <v>0</v>
       </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -697,6 +705,9 @@
       <c r="AD3">
         <v>0</v>
       </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -795,6 +806,9 @@
       <c r="AE4">
         <v>0</v>
       </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -896,6 +910,9 @@
       <c r="AE5">
         <v>0</v>
       </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -997,6 +1014,9 @@
       <c r="AE6">
         <v>23</v>
       </c>
+      <c r="AF6">
+        <v>34</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1095,6 +1115,9 @@
       <c r="AE7">
         <v>0</v>
       </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1193,6 +1216,9 @@
       <c r="AE8">
         <v>15</v>
       </c>
+      <c r="AF8">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1285,6 +1311,9 @@
       <c r="AD9">
         <v>0</v>
       </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1495,6 +1524,9 @@
       <c r="AE12">
         <v>0</v>
       </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1661,6 +1693,9 @@
       <c r="AE14">
         <v>0</v>
       </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1735,6 +1770,9 @@
       <c r="AE15">
         <v>0</v>
       </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1877,6 +1915,9 @@
       <c r="AE17">
         <v>0</v>
       </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2150,6 +2191,9 @@
       <c r="AE23">
         <v>0</v>
       </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2203,6 +2247,9 @@
       <c r="AE24">
         <v>0</v>
       </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2304,6 +2351,9 @@
       <c r="AE25">
         <v>4</v>
       </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AE26">
         <v>0</v>
       </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2416,6 +2469,9 @@
       <c r="T27">
         <v>0</v>
       </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2514,6 +2570,9 @@
       <c r="AE28">
         <v>163</v>
       </c>
+      <c r="AF28">
+        <v>69</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2612,6 +2671,9 @@
       <c r="AE29">
         <v>0</v>
       </c>
+      <c r="AF29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2713,6 +2775,9 @@
       <c r="AE30">
         <v>10</v>
       </c>
+      <c r="AF30">
+        <v>19</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2814,6 +2879,9 @@
       <c r="AE31">
         <v>0</v>
       </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2915,6 +2983,9 @@
       <c r="AE32">
         <v>0</v>
       </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2979,6 +3050,9 @@
       <c r="AE34">
         <v>1</v>
       </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3080,6 +3154,9 @@
       <c r="AE35">
         <v>18</v>
       </c>
+      <c r="AF35">
+        <v>13</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3181,6 +3258,9 @@
       <c r="AE36">
         <v>0</v>
       </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3279,6 +3359,9 @@
       <c r="AE37">
         <v>0</v>
       </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3380,6 +3463,9 @@
       <c r="AE38">
         <v>0</v>
       </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3427,6 +3513,9 @@
       <c r="AE39">
         <v>0</v>
       </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3510,6 +3599,9 @@
       <c r="AE40">
         <v>0</v>
       </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3608,6 +3700,9 @@
       <c r="AE41">
         <v>0</v>
       </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3703,6 +3798,9 @@
       <c r="AE42">
         <v>0</v>
       </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3795,6 +3893,9 @@
       <c r="AE43">
         <v>0</v>
       </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3896,6 +3997,9 @@
       <c r="AE44">
         <v>0</v>
       </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3997,6 +4101,9 @@
       <c r="AE45">
         <v>0</v>
       </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4098,6 +4205,9 @@
       <c r="AE46">
         <v>0</v>
       </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4199,6 +4309,9 @@
       <c r="AE47">
         <v>0</v>
       </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4300,6 +4413,9 @@
       <c r="AE48">
         <v>0</v>
       </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4401,6 +4517,9 @@
       <c r="AE49">
         <v>0</v>
       </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4493,6 +4612,9 @@
       <c r="AE50">
         <v>0</v>
       </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4668,6 +4790,9 @@
       <c r="AE52">
         <v>0</v>
       </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4751,6 +4876,9 @@
       <c r="AE53">
         <v>0</v>
       </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4763,6 +4891,11 @@
           <t>01</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CLINICA MEDICA TURIN SAS</t>
+        </is>
+      </c>
       <c r="U54">
         <v>0</v>
       </c>
@@ -4794,6 +4927,9 @@
         <v>0</v>
       </c>
       <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
         <v>0</v>
       </c>
     </row>
@@ -4894,6 +5030,9 @@
       <c r="AE55">
         <v>0</v>
       </c>
+      <c r="AF55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4986,6 +5125,9 @@
       <c r="AE56">
         <v>0</v>
       </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5085,6 +5227,9 @@
         <v>0</v>
       </c>
       <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF57"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,6 +518,11 @@
           <t>29</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -622,6 +627,9 @@
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -809,6 +817,9 @@
       <c r="AF4">
         <v>0</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -913,6 +924,9 @@
       <c r="AF5">
         <v>0</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1017,6 +1031,9 @@
       <c r="AF6">
         <v>34</v>
       </c>
+      <c r="AG6">
+        <v>23</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1118,6 +1135,9 @@
       <c r="AF7">
         <v>1</v>
       </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1219,6 +1239,9 @@
       <c r="AF8">
         <v>28</v>
       </c>
+      <c r="AG8">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1314,6 +1337,9 @@
       <c r="AF9">
         <v>0</v>
       </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1400,6 +1426,9 @@
       <c r="AE10">
         <v>0</v>
       </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1527,6 +1556,9 @@
       <c r="AF12">
         <v>0</v>
       </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1696,6 +1728,9 @@
       <c r="AF14">
         <v>0</v>
       </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1835,6 +1870,9 @@
       <c r="AE16">
         <v>0</v>
       </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1918,6 +1956,9 @@
       <c r="AF17">
         <v>0</v>
       </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2111,6 +2152,9 @@
       <c r="AE22">
         <v>0</v>
       </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2194,6 +2238,9 @@
       <c r="AF23">
         <v>0</v>
       </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2354,6 +2401,9 @@
       <c r="AF25">
         <v>1</v>
       </c>
+      <c r="AG25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2568,11 +2618,14 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="AF28">
         <v>69</v>
       </c>
+      <c r="AG28">
+        <v>44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2674,6 +2727,9 @@
       <c r="AF29">
         <v>4</v>
       </c>
+      <c r="AG29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2778,6 +2834,9 @@
       <c r="AF30">
         <v>19</v>
       </c>
+      <c r="AG30">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2882,6 +2941,9 @@
       <c r="AF31">
         <v>0</v>
       </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2986,6 +3048,9 @@
       <c r="AF32">
         <v>0</v>
       </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3053,6 +3118,9 @@
       <c r="AF34">
         <v>0</v>
       </c>
+      <c r="AG34">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3157,6 +3225,9 @@
       <c r="AF35">
         <v>13</v>
       </c>
+      <c r="AG35">
+        <v>20</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3261,6 +3332,9 @@
       <c r="AF36">
         <v>0</v>
       </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3362,6 +3436,9 @@
       <c r="AF37">
         <v>0</v>
       </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3466,6 +3543,9 @@
       <c r="AF38">
         <v>0</v>
       </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3516,6 +3596,9 @@
       <c r="AF39">
         <v>0</v>
       </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3602,6 +3685,9 @@
       <c r="AF40">
         <v>0</v>
       </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3703,6 +3789,9 @@
       <c r="AF41">
         <v>0</v>
       </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3801,6 +3890,9 @@
       <c r="AF42">
         <v>0</v>
       </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3896,6 +3988,9 @@
       <c r="AF43">
         <v>0</v>
       </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4000,6 +4095,9 @@
       <c r="AF44">
         <v>0</v>
       </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4104,6 +4202,9 @@
       <c r="AF45">
         <v>0</v>
       </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4208,6 +4309,9 @@
       <c r="AF46">
         <v>0</v>
       </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4312,6 +4416,9 @@
       <c r="AF47">
         <v>0</v>
       </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4416,6 +4523,9 @@
       <c r="AF48">
         <v>0</v>
       </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4520,6 +4630,9 @@
       <c r="AF49">
         <v>0</v>
       </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4615,6 +4728,9 @@
       <c r="AF50">
         <v>0</v>
       </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4793,6 +4909,9 @@
       <c r="AF52">
         <v>0</v>
       </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4879,6 +4998,9 @@
       <c r="AF53">
         <v>0</v>
       </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4932,6 +5054,9 @@
       <c r="AF54">
         <v>0</v>
       </c>
+      <c r="AG54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5033,6 +5158,9 @@
       <c r="AF55">
         <v>0</v>
       </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5128,6 +5256,9 @@
       <c r="AF56">
         <v>0</v>
       </c>
+      <c r="AG56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5230,6 +5361,9 @@
         <v>0</v>
       </c>
       <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AH58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,6 +523,11 @@
           <t>30</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -630,6 +635,9 @@
       <c r="AG2">
         <v>0</v>
       </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -716,6 +724,9 @@
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -820,6 +831,9 @@
       <c r="AG4">
         <v>0</v>
       </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -927,6 +941,9 @@
       <c r="AG5">
         <v>0</v>
       </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1034,6 +1051,9 @@
       <c r="AG6">
         <v>23</v>
       </c>
+      <c r="AH6">
+        <v>26</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1138,6 +1158,9 @@
       <c r="AG7">
         <v>2</v>
       </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1242,6 +1265,9 @@
       <c r="AG8">
         <v>28</v>
       </c>
+      <c r="AH8">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1429,6 +1455,9 @@
       <c r="AG10">
         <v>0</v>
       </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1503,6 +1532,9 @@
       <c r="AB11">
         <v>0</v>
       </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1559,6 +1591,9 @@
       <c r="AG12">
         <v>0</v>
       </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1639,6 +1674,9 @@
       <c r="AE13">
         <v>0</v>
       </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1731,6 +1769,9 @@
       <c r="AG14">
         <v>0</v>
       </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1808,6 +1849,9 @@
       <c r="AF15">
         <v>0</v>
       </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1873,6 +1917,9 @@
       <c r="AG16">
         <v>0</v>
       </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1959,6 +2006,9 @@
       <c r="AG17">
         <v>0</v>
       </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2241,6 +2291,9 @@
       <c r="AG23">
         <v>0</v>
       </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2297,6 +2350,9 @@
       <c r="AF24">
         <v>0</v>
       </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2404,6 +2460,9 @@
       <c r="AG25">
         <v>2</v>
       </c>
+      <c r="AH25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2626,6 +2685,9 @@
       <c r="AG28">
         <v>44</v>
       </c>
+      <c r="AH28">
+        <v>55</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2730,6 +2792,9 @@
       <c r="AG29">
         <v>4</v>
       </c>
+      <c r="AH29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2837,6 +2902,9 @@
       <c r="AG30">
         <v>18</v>
       </c>
+      <c r="AH30">
+        <v>15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2944,6 +3012,9 @@
       <c r="AG31">
         <v>0</v>
       </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3051,6 +3122,9 @@
       <c r="AG32">
         <v>0</v>
       </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3121,6 +3195,9 @@
       <c r="AG34">
         <v>5</v>
       </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3228,6 +3305,9 @@
       <c r="AG35">
         <v>20</v>
       </c>
+      <c r="AH35">
+        <v>17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3335,6 +3415,9 @@
       <c r="AG36">
         <v>0</v>
       </c>
+      <c r="AH36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3439,6 +3522,9 @@
       <c r="AG37">
         <v>0</v>
       </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3546,115 +3632,55 @@
       <c r="AG38">
         <v>0</v>
       </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600102402</t>
+          <t>6600102288</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
-        </is>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
+          <t>SALUD PYP SAS</t>
+        </is>
+      </c>
+      <c r="AH39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600102411</t>
+          <t>6600102402</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
-        </is>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
+          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
+        </is>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
       <c r="W40">
         <v>0</v>
       </c>
@@ -3664,12 +3690,6 @@
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
       <c r="AB40">
         <v>0</v>
       </c>
@@ -3686,49 +3706,34 @@
         <v>0</v>
       </c>
       <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
@@ -3774,6 +3779,9 @@
       <c r="Z41">
         <v>0</v>
       </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
       <c r="AB41">
         <v>0</v>
       </c>
@@ -3790,6 +3798,9 @@
         <v>0</v>
       </c>
       <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
         <v>0</v>
       </c>
     </row>
@@ -3801,7 +3812,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3869,6 +3880,9 @@
       <c r="W42">
         <v>0</v>
       </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
       <c r="Y42">
         <v>0</v>
       </c>
@@ -3891,23 +3905,26 @@
         <v>0</v>
       </c>
       <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GRUPO EMI</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D43">
@@ -3922,6 +3939,9 @@
       <c r="G43">
         <v>0</v>
       </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
       <c r="I43">
         <v>0</v>
       </c>
@@ -3964,7 +3984,7 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="X43">
+      <c r="W43">
         <v>0</v>
       </c>
       <c r="Y43">
@@ -3973,15 +3993,15 @@
       <c r="Z43">
         <v>0</v>
       </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
       <c r="AB43">
         <v>0</v>
       </c>
       <c r="AC43">
         <v>0</v>
       </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
       <c r="AE43">
         <v>0</v>
       </c>
@@ -3989,13 +4009,16 @@
         <v>0</v>
       </c>
       <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4005,7 +4028,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>GRUPO EMI</t>
         </is>
       </c>
       <c r="D44">
@@ -4020,9 +4043,6 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>0</v>
       </c>
@@ -4065,9 +4085,6 @@
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
       <c r="X44">
         <v>0</v>
       </c>
@@ -4084,9 +4101,6 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
         <v>0</v>
       </c>
       <c r="AE44">
@@ -4107,12 +4121,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D45">
@@ -4203,6 +4217,9 @@
         <v>0</v>
       </c>
       <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
         <v>0</v>
       </c>
     </row>
@@ -4214,12 +4231,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D46">
@@ -4310,6 +4327,9 @@
         <v>0</v>
       </c>
       <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
         <v>0</v>
       </c>
     </row>
@@ -4321,12 +4341,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D47">
@@ -4417,23 +4437,26 @@
         <v>0</v>
       </c>
       <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D48">
@@ -4524,13 +4547,16 @@
         <v>0</v>
       </c>
       <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4540,7 +4566,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D49">
@@ -4631,13 +4657,16 @@
         <v>0</v>
       </c>
       <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4647,7 +4676,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>NEUROMEDICA SAS</t>
         </is>
       </c>
       <c r="D50">
@@ -4656,6 +4685,9 @@
       <c r="E50">
         <v>0</v>
       </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
       <c r="G50">
         <v>0</v>
       </c>
@@ -4689,6 +4721,9 @@
       <c r="Q50">
         <v>0</v>
       </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
       <c r="S50">
         <v>0</v>
       </c>
@@ -4710,6 +4745,9 @@
       <c r="Y50">
         <v>0</v>
       </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
       <c r="AA50">
         <v>0</v>
       </c>
@@ -4729,13 +4767,16 @@
         <v>0</v>
       </c>
       <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4745,10 +4786,13 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
-        </is>
-      </c>
-      <c r="F51">
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
         <v>0</v>
       </c>
       <c r="G51">
@@ -4757,25 +4801,34 @@
       <c r="H51">
         <v>0</v>
       </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
       <c r="P51">
         <v>0</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>0</v>
       </c>
       <c r="T51">
@@ -4796,20 +4849,35 @@
       <c r="Y51">
         <v>0</v>
       </c>
-      <c r="Z51">
+      <c r="AA51">
         <v>0</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
       <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4819,14 +4887,8 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
+          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+        </is>
       </c>
       <c r="F52">
         <v>0</v>
@@ -4835,19 +4897,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4855,9 +4911,6 @@
       <c r="N52">
         <v>0</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
       <c r="P52">
         <v>0</v>
       </c>
@@ -4867,11 +4920,8 @@
       <c r="R52">
         <v>0</v>
       </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
       <c r="T52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -4886,37 +4936,22 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52">
         <v>0</v>
       </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
       <c r="AB52">
         <v>0</v>
       </c>
-      <c r="AC52">
-        <v>0</v>
-      </c>
       <c r="AD52">
-        <v>0</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6600103334</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4926,17 +4961,35 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CLINICA CENTRAL DEL EJE SAS</t>
-        </is>
+          <t>CLINICA LOS NEVADOS SAS</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -4957,10 +5010,10 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -4975,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -4987,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="AC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53">
         <v>0</v>
@@ -4999,13 +5052,16 @@
         <v>0</v>
       </c>
       <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6600103414</t>
+          <t>6600103334</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5015,8 +5071,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CLINICA MEDICA TURIN SAS</t>
-        </is>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
+        </is>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -5043,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -5055,72 +5144,27 @@
         <v>0</v>
       </c>
       <c r="AG54">
+        <v>0</v>
+      </c>
+      <c r="AH54">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103414</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
+          <t>CLINICA MEDICA TURIN SAS</t>
+        </is>
       </c>
       <c r="U55">
         <v>0</v>
@@ -5159,23 +5203,26 @@
         <v>0</v>
       </c>
       <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600161600</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>EPMSC PEREIRA</t>
         </is>
       </c>
       <c r="D56">
@@ -5199,6 +5246,9 @@
       <c r="K56">
         <v>0</v>
       </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
       <c r="M56">
         <v>0</v>
       </c>
@@ -5214,6 +5264,9 @@
       <c r="Q56">
         <v>0</v>
       </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
       <c r="S56">
         <v>0</v>
       </c>
@@ -5257,113 +5310,220 @@
         <v>0</v>
       </c>
       <c r="AG56">
+        <v>0</v>
+      </c>
+      <c r="AH56">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
-        <v>0</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-      <c r="AC57">
-        <v>0</v>
-      </c>
-      <c r="AD57">
-        <v>0</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH58"/>
+  <dimension ref="A1:AI58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,6 +528,11 @@
           <t>31</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -638,6 +643,9 @@
       <c r="AH2">
         <v>0</v>
       </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -727,6 +735,9 @@
       <c r="AH3">
         <v>0</v>
       </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -944,6 +955,9 @@
       <c r="AH5">
         <v>0</v>
       </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1054,6 +1068,9 @@
       <c r="AH6">
         <v>26</v>
       </c>
+      <c r="AI6">
+        <v>30</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1161,6 +1178,9 @@
       <c r="AH7">
         <v>3</v>
       </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1268,6 +1288,9 @@
       <c r="AH8">
         <v>29</v>
       </c>
+      <c r="AI8">
+        <v>25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1366,6 +1389,9 @@
       <c r="AG9">
         <v>0</v>
       </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1458,6 +1484,9 @@
       <c r="AH10">
         <v>0</v>
       </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1677,6 +1706,9 @@
       <c r="AH13">
         <v>0</v>
       </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1852,6 +1884,9 @@
       <c r="AH15">
         <v>0</v>
       </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1920,6 +1955,9 @@
       <c r="AH16">
         <v>0</v>
       </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2009,6 +2047,9 @@
       <c r="AH17">
         <v>0</v>
       </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2294,6 +2335,9 @@
       <c r="AH23">
         <v>0</v>
       </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2463,6 +2507,9 @@
       <c r="AH25">
         <v>2</v>
       </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2581,6 +2628,9 @@
       <c r="AF27">
         <v>0</v>
       </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2688,6 +2738,9 @@
       <c r="AH28">
         <v>55</v>
       </c>
+      <c r="AI28">
+        <v>36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2795,6 +2848,9 @@
       <c r="AH29">
         <v>4</v>
       </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2905,6 +2961,9 @@
       <c r="AH30">
         <v>15</v>
       </c>
+      <c r="AI30">
+        <v>19</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3015,6 +3074,9 @@
       <c r="AH31">
         <v>0</v>
       </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3125,6 +3187,9 @@
       <c r="AH32">
         <v>0</v>
       </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3198,6 +3263,9 @@
       <c r="AH34">
         <v>0</v>
       </c>
+      <c r="AI34">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3308,6 +3376,9 @@
       <c r="AH35">
         <v>17</v>
       </c>
+      <c r="AI35">
+        <v>18</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3418,6 +3489,9 @@
       <c r="AH36">
         <v>1</v>
       </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3525,6 +3599,9 @@
       <c r="AH37">
         <v>0</v>
       </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3635,6 +3712,9 @@
       <c r="AH38">
         <v>0</v>
       </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3711,6 +3791,9 @@
       <c r="AH40">
         <v>0</v>
       </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3803,6 +3886,9 @@
       <c r="AH41">
         <v>0</v>
       </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3910,6 +3996,9 @@
       <c r="AH42">
         <v>0</v>
       </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4014,6 +4103,9 @@
       <c r="AH43">
         <v>0</v>
       </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4222,6 +4314,9 @@
       <c r="AH45">
         <v>0</v>
       </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4332,6 +4427,9 @@
       <c r="AH46">
         <v>0</v>
       </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4442,6 +4540,9 @@
       <c r="AH47">
         <v>0</v>
       </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4552,6 +4653,9 @@
       <c r="AH48">
         <v>0</v>
       </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4662,6 +4766,9 @@
       <c r="AH49">
         <v>0</v>
       </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4772,6 +4879,9 @@
       <c r="AH50">
         <v>0</v>
       </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4873,6 +4983,9 @@
       <c r="AH51">
         <v>0</v>
       </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5057,6 +5170,9 @@
       <c r="AH53">
         <v>0</v>
       </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5149,6 +5265,9 @@
       <c r="AH54">
         <v>0</v>
       </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5208,6 +5327,9 @@
       <c r="AH55">
         <v>0</v>
       </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5315,6 +5437,9 @@
       <c r="AH56">
         <v>0</v>
       </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5416,6 +5541,9 @@
       <c r="AH57">
         <v>0</v>
       </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5524,6 +5652,9 @@
         <v>0</v>
       </c>
       <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI58"/>
+  <dimension ref="A1:AJ58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,6 +533,11 @@
           <t>32</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -646,6 +651,9 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -958,6 +966,9 @@
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1071,6 +1082,9 @@
       <c r="AI6">
         <v>30</v>
       </c>
+      <c r="AJ6">
+        <v>38</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1181,6 +1195,9 @@
       <c r="AI7">
         <v>1</v>
       </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1291,6 +1308,9 @@
       <c r="AI8">
         <v>25</v>
       </c>
+      <c r="AJ8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1392,6 +1412,9 @@
       <c r="AI9">
         <v>0</v>
       </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1487,6 +1510,9 @@
       <c r="AI10">
         <v>0</v>
       </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1564,6 +1590,9 @@
       <c r="AH11">
         <v>0</v>
       </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1709,6 +1738,9 @@
       <c r="AI13">
         <v>0</v>
       </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1804,6 +1836,9 @@
       <c r="AH14">
         <v>0</v>
       </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1887,6 +1922,9 @@
       <c r="AI15">
         <v>0</v>
       </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2338,6 +2376,9 @@
       <c r="AI23">
         <v>0</v>
       </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2397,6 +2438,9 @@
       <c r="AH24">
         <v>0</v>
       </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2510,6 +2554,9 @@
       <c r="AI25">
         <v>1</v>
       </c>
+      <c r="AJ25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2599,6 +2646,9 @@
       <c r="AF26">
         <v>0</v>
       </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2851,6 +2901,9 @@
       <c r="AI29">
         <v>3</v>
       </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3077,6 +3130,9 @@
       <c r="AI31">
         <v>0</v>
       </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3266,6 +3322,9 @@
       <c r="AI34">
         <v>3</v>
       </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3379,6 +3438,9 @@
       <c r="AI35">
         <v>18</v>
       </c>
+      <c r="AJ35">
+        <v>12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3492,6 +3554,9 @@
       <c r="AI36">
         <v>0</v>
       </c>
+      <c r="AJ36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3602,6 +3667,9 @@
       <c r="AI37">
         <v>0</v>
       </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3715,6 +3783,9 @@
       <c r="AI38">
         <v>0</v>
       </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3794,6 +3865,9 @@
       <c r="AI40">
         <v>0</v>
       </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3889,6 +3963,9 @@
       <c r="AI41">
         <v>0</v>
       </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3999,6 +4076,9 @@
       <c r="AI42">
         <v>0</v>
       </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4106,6 +4186,9 @@
       <c r="AI43">
         <v>0</v>
       </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4317,6 +4400,9 @@
       <c r="AI45">
         <v>0</v>
       </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4430,6 +4516,9 @@
       <c r="AI46">
         <v>0</v>
       </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4543,6 +4632,9 @@
       <c r="AI47">
         <v>0</v>
       </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4656,6 +4748,9 @@
       <c r="AI48">
         <v>0</v>
       </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4769,6 +4864,9 @@
       <c r="AI49">
         <v>0</v>
       </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4882,6 +4980,9 @@
       <c r="AI50">
         <v>0</v>
       </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4986,6 +5087,9 @@
       <c r="AI51">
         <v>0</v>
       </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5173,6 +5277,9 @@
       <c r="AI53">
         <v>0</v>
       </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5268,6 +5375,9 @@
       <c r="AI54">
         <v>0</v>
       </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5330,6 +5440,9 @@
       <c r="AI55">
         <v>0</v>
       </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5440,6 +5553,9 @@
       <c r="AI56">
         <v>0</v>
       </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5655,6 +5771,9 @@
         <v>0</v>
       </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ58"/>
+  <dimension ref="A1:AK58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,6 +538,11 @@
           <t>33</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -654,6 +659,9 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -746,6 +754,9 @@
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -969,6 +980,9 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1085,6 +1099,9 @@
       <c r="AJ6">
         <v>38</v>
       </c>
+      <c r="AK6">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1198,6 +1215,9 @@
       <c r="AJ7">
         <v>0</v>
       </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1311,6 +1331,9 @@
       <c r="AJ8">
         <v>10</v>
       </c>
+      <c r="AK8">
+        <v>29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1513,6 +1536,9 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1593,6 +1619,9 @@
       <c r="AJ11">
         <v>0</v>
       </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1652,6 +1681,9 @@
       <c r="AH12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1741,6 +1773,9 @@
       <c r="AJ13">
         <v>0</v>
       </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1839,6 +1874,9 @@
       <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2088,6 +2126,9 @@
       <c r="AI17">
         <v>0</v>
       </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2120,6 +2161,9 @@
       <c r="AE18">
         <v>0</v>
       </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2161,6 +2205,9 @@
       <c r="Z19">
         <v>0</v>
       </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2284,6 +2331,9 @@
       <c r="AG22">
         <v>0</v>
       </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2379,6 +2429,9 @@
       <c r="AJ23">
         <v>0</v>
       </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2441,6 +2494,9 @@
       <c r="AJ24">
         <v>0</v>
       </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2557,6 +2613,9 @@
       <c r="AJ25">
         <v>3</v>
       </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2681,6 +2740,9 @@
       <c r="AI27">
         <v>0</v>
       </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2791,6 +2853,12 @@
       <c r="AI28">
         <v>36</v>
       </c>
+      <c r="AJ28">
+        <v>6</v>
+      </c>
+      <c r="AK28">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2904,6 +2972,9 @@
       <c r="AJ29">
         <v>2</v>
       </c>
+      <c r="AK29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3017,6 +3088,12 @@
       <c r="AI30">
         <v>19</v>
       </c>
+      <c r="AJ30">
+        <v>16</v>
+      </c>
+      <c r="AK30">
+        <v>17</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3133,6 +3210,9 @@
       <c r="AJ31">
         <v>0</v>
       </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3325,6 +3405,9 @@
       <c r="AJ34">
         <v>0</v>
       </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3441,6 +3524,9 @@
       <c r="AJ35">
         <v>12</v>
       </c>
+      <c r="AK35">
+        <v>17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3557,6 +3643,9 @@
       <c r="AJ36">
         <v>1</v>
       </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3670,6 +3759,9 @@
       <c r="AJ37">
         <v>0</v>
       </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3786,6 +3878,9 @@
       <c r="AJ38">
         <v>0</v>
       </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3868,6 +3963,9 @@
       <c r="AJ40">
         <v>0</v>
       </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3966,6 +4064,9 @@
       <c r="AJ41">
         <v>0</v>
       </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4079,6 +4180,9 @@
       <c r="AJ42">
         <v>0</v>
       </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4189,6 +4293,9 @@
       <c r="AJ43">
         <v>0</v>
       </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4287,6 +4394,9 @@
       <c r="AG44">
         <v>0</v>
       </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4403,6 +4513,9 @@
       <c r="AJ45">
         <v>0</v>
       </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4519,6 +4632,9 @@
       <c r="AJ46">
         <v>0</v>
       </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4635,6 +4751,9 @@
       <c r="AJ47">
         <v>0</v>
       </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4751,6 +4870,9 @@
       <c r="AJ48">
         <v>0</v>
       </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4867,6 +4989,9 @@
       <c r="AJ49">
         <v>0</v>
       </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4983,6 +5108,9 @@
       <c r="AJ50">
         <v>0</v>
       </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5090,6 +5218,9 @@
       <c r="AJ51">
         <v>0</v>
       </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5164,6 +5295,9 @@
       <c r="AD52">
         <v>0</v>
       </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5280,6 +5414,9 @@
       <c r="AJ53">
         <v>0</v>
       </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5378,6 +5515,9 @@
       <c r="AJ54">
         <v>0</v>
       </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5443,6 +5583,9 @@
       <c r="AJ55">
         <v>0</v>
       </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5556,6 +5699,9 @@
       <c r="AJ56">
         <v>0</v>
       </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5660,6 +5806,9 @@
       <c r="AI57">
         <v>0</v>
       </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5774,6 +5923,9 @@
         <v>0</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK58"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,6 +543,16 @@
           <t>34</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -662,6 +672,12 @@
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -757,6 +773,12 @@
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -864,6 +886,9 @@
       <c r="AH4">
         <v>0</v>
       </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -983,6 +1008,12 @@
       <c r="AK5">
         <v>0</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1102,6 +1133,12 @@
       <c r="AK6">
         <v>42</v>
       </c>
+      <c r="AL6">
+        <v>12</v>
+      </c>
+      <c r="AM6">
+        <v>24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1218,6 +1255,12 @@
       <c r="AK7">
         <v>2</v>
       </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1334,6 +1377,12 @@
       <c r="AK8">
         <v>29</v>
       </c>
+      <c r="AL8">
+        <v>21</v>
+      </c>
+      <c r="AM8">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1438,6 +1487,12 @@
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1539,6 +1594,12 @@
       <c r="AK10">
         <v>0</v>
       </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1622,6 +1683,9 @@
       <c r="AK11">
         <v>0</v>
       </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1684,6 +1748,9 @@
       <c r="AK12">
         <v>0</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1776,6 +1843,12 @@
       <c r="AK13">
         <v>0</v>
       </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1877,6 +1950,12 @@
       <c r="AK14">
         <v>0</v>
       </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1963,6 +2042,9 @@
       <c r="AJ15">
         <v>0</v>
       </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2034,6 +2116,12 @@
       <c r="AI16">
         <v>0</v>
       </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2129,6 +2217,12 @@
       <c r="AK17">
         <v>0</v>
       </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2164,6 +2258,9 @@
       <c r="AK18">
         <v>0</v>
       </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2208,6 +2305,9 @@
       <c r="AK19">
         <v>0</v>
       </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2334,6 +2434,12 @@
       <c r="AK22">
         <v>0</v>
       </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2432,6 +2538,12 @@
       <c r="AK23">
         <v>0</v>
       </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2616,6 +2728,12 @@
       <c r="AK25">
         <v>1</v>
       </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2708,6 +2826,9 @@
       <c r="AJ26">
         <v>0</v>
       </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2743,6 +2864,9 @@
       <c r="AK27">
         <v>0</v>
       </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2794,16 +2918,19 @@
         <v>18</v>
       </c>
       <c r="O28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>2</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2858,6 +2985,12 @@
       </c>
       <c r="AK28">
         <v>7</v>
+      </c>
+      <c r="AL28">
+        <v>5</v>
+      </c>
+      <c r="AM28">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2975,6 +3108,12 @@
       <c r="AK29">
         <v>2</v>
       </c>
+      <c r="AL29">
+        <v>3</v>
+      </c>
+      <c r="AM29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3094,6 +3233,12 @@
       <c r="AK30">
         <v>17</v>
       </c>
+      <c r="AL30">
+        <v>26</v>
+      </c>
+      <c r="AM30">
+        <v>17</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3213,6 +3358,9 @@
       <c r="AK31">
         <v>0</v>
       </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3527,6 +3675,9 @@
       <c r="AK35">
         <v>17</v>
       </c>
+      <c r="AL35">
+        <v>16</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3646,6 +3797,12 @@
       <c r="AK36">
         <v>1</v>
       </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3762,6 +3919,12 @@
       <c r="AK37">
         <v>0</v>
       </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3881,6 +4044,12 @@
       <c r="AK38">
         <v>0</v>
       </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3966,6 +4135,12 @@
       <c r="AK40">
         <v>0</v>
       </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4067,6 +4242,12 @@
       <c r="AK41">
         <v>0</v>
       </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4183,6 +4364,12 @@
       <c r="AK42">
         <v>0</v>
       </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4296,6 +4483,9 @@
       <c r="AK43">
         <v>0</v>
       </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4397,6 +4587,12 @@
       <c r="AK44">
         <v>0</v>
       </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4516,6 +4712,12 @@
       <c r="AK45">
         <v>0</v>
       </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4635,6 +4837,12 @@
       <c r="AK46">
         <v>0</v>
       </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4754,6 +4962,12 @@
       <c r="AK47">
         <v>0</v>
       </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4873,6 +5087,12 @@
       <c r="AK48">
         <v>0</v>
       </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4992,6 +5212,12 @@
       <c r="AK49">
         <v>0</v>
       </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5111,6 +5337,12 @@
       <c r="AK50">
         <v>0</v>
       </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5221,6 +5453,12 @@
       <c r="AK51">
         <v>0</v>
       </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5298,6 +5536,9 @@
       <c r="AK52">
         <v>0</v>
       </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5417,6 +5658,12 @@
       <c r="AK53">
         <v>0</v>
       </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5453,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -5465,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -5510,12 +5757,18 @@
         <v>0</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ54">
         <v>0</v>
       </c>
       <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
         <v>0</v>
       </c>
     </row>
@@ -5586,6 +5839,12 @@
       <c r="AK55">
         <v>0</v>
       </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5702,6 +5961,12 @@
       <c r="AK56">
         <v>0</v>
       </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5809,6 +6074,12 @@
       <c r="AK57">
         <v>0</v>
       </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5926,6 +6197,12 @@
         <v>0</v>
       </c>
       <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,6 +553,11 @@
           <t>36</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -678,6 +683,9 @@
       <c r="AM2">
         <v>0</v>
       </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -779,6 +787,9 @@
       <c r="AM3">
         <v>0</v>
       </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1014,6 +1025,9 @@
       <c r="AM5">
         <v>0</v>
       </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1139,6 +1153,9 @@
       <c r="AM6">
         <v>24</v>
       </c>
+      <c r="AN6">
+        <v>33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1261,6 +1278,9 @@
       <c r="AM7">
         <v>1</v>
       </c>
+      <c r="AN7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1383,6 +1403,9 @@
       <c r="AM8">
         <v>15</v>
       </c>
+      <c r="AN8">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1493,6 +1516,9 @@
       <c r="AM9">
         <v>0</v>
       </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1600,6 +1626,9 @@
       <c r="AM10">
         <v>0</v>
       </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1751,6 +1780,9 @@
       <c r="AM12">
         <v>0</v>
       </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1956,6 +1988,9 @@
       <c r="AM14">
         <v>0</v>
       </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2045,6 +2080,9 @@
       <c r="AM15">
         <v>0</v>
       </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2122,6 +2160,9 @@
       <c r="AM16">
         <v>0</v>
       </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2223,6 +2264,9 @@
       <c r="AM17">
         <v>0</v>
       </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2348,6 +2392,9 @@
       <c r="AC21">
         <v>0</v>
       </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2544,6 +2591,9 @@
       <c r="AM23">
         <v>0</v>
       </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2734,6 +2784,9 @@
       <c r="AM25">
         <v>1</v>
       </c>
+      <c r="AN25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2829,6 +2882,9 @@
       <c r="AL26">
         <v>0</v>
       </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2933,64 +2989,67 @@
         <v>2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE28">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="AG28">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="AH28">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AJ28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AL28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AM28">
         <v>6</v>
+      </c>
+      <c r="AN28">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3114,6 +3173,9 @@
       <c r="AM29">
         <v>3</v>
       </c>
+      <c r="AN29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3239,6 +3301,9 @@
       <c r="AM30">
         <v>17</v>
       </c>
+      <c r="AN30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3361,6 +3426,12 @@
       <c r="AL31">
         <v>0</v>
       </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3601,7 +3672,7 @@
         <v>17</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>22</v>
@@ -3677,6 +3748,12 @@
       </c>
       <c r="AL35">
         <v>16</v>
+      </c>
+      <c r="AM35">
+        <v>13</v>
+      </c>
+      <c r="AN35">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -3803,6 +3880,9 @@
       <c r="AM36">
         <v>0</v>
       </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3925,6 +4005,9 @@
       <c r="AM37">
         <v>0</v>
       </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4050,6 +4133,9 @@
       <c r="AM38">
         <v>0</v>
       </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4248,6 +4334,9 @@
       <c r="AM41">
         <v>0</v>
       </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4370,6 +4459,9 @@
       <c r="AM42">
         <v>0</v>
       </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4486,6 +4578,12 @@
       <c r="AL43">
         <v>0</v>
       </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4593,6 +4691,9 @@
       <c r="AM44">
         <v>0</v>
       </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4718,6 +4819,9 @@
       <c r="AM45">
         <v>0</v>
       </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4843,6 +4947,9 @@
       <c r="AM46">
         <v>0</v>
       </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4968,6 +5075,9 @@
       <c r="AM47">
         <v>0</v>
       </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5093,6 +5203,9 @@
       <c r="AM48">
         <v>0</v>
       </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5218,6 +5331,9 @@
       <c r="AM49">
         <v>0</v>
       </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5343,6 +5459,9 @@
       <c r="AM50">
         <v>0</v>
       </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5459,6 +5578,9 @@
       <c r="AM51">
         <v>0</v>
       </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5539,6 +5661,9 @@
       <c r="AL52">
         <v>0</v>
       </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5664,6 +5789,9 @@
       <c r="AM53">
         <v>0</v>
       </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5771,6 +5899,9 @@
       <c r="AM54">
         <v>0</v>
       </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5845,6 +5976,9 @@
       <c r="AM55">
         <v>0</v>
       </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5967,6 +6101,9 @@
       <c r="AM56">
         <v>0</v>
       </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6080,6 +6217,9 @@
       <c r="AM57">
         <v>0</v>
       </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6203,6 +6343,9 @@
         <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,6 +558,11 @@
           <t>37</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -686,6 +691,9 @@
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1028,6 +1036,9 @@
       <c r="AN5">
         <v>0</v>
       </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1156,6 +1167,9 @@
       <c r="AN6">
         <v>33</v>
       </c>
+      <c r="AO6">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1281,6 +1295,9 @@
       <c r="AN7">
         <v>2</v>
       </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1406,6 +1423,9 @@
       <c r="AN8">
         <v>16</v>
       </c>
+      <c r="AO8">
+        <v>19</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1519,6 +1539,9 @@
       <c r="AN9">
         <v>0</v>
       </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1629,6 +1652,9 @@
       <c r="AN10">
         <v>0</v>
       </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1715,6 +1741,9 @@
       <c r="AM11">
         <v>0</v>
       </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1991,6 +2020,9 @@
       <c r="AN14">
         <v>0</v>
       </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2083,6 +2115,9 @@
       <c r="AN15">
         <v>0</v>
       </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2163,6 +2198,9 @@
       <c r="AN16">
         <v>0</v>
       </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2267,6 +2305,9 @@
       <c r="AN17">
         <v>0</v>
       </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2305,6 +2346,9 @@
       <c r="AM18">
         <v>0</v>
       </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2352,6 +2396,9 @@
       <c r="AM19">
         <v>0</v>
       </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2594,6 +2641,9 @@
       <c r="AN23">
         <v>0</v>
       </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2787,6 +2837,9 @@
       <c r="AN25">
         <v>2</v>
       </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3051,6 +3104,9 @@
       <c r="AN28">
         <v>3</v>
       </c>
+      <c r="AO28">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3176,6 +3232,9 @@
       <c r="AN29">
         <v>2</v>
       </c>
+      <c r="AO29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3432,6 +3491,9 @@
       <c r="AN31">
         <v>0</v>
       </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3753,7 +3815,10 @@
         <v>13</v>
       </c>
       <c r="AN35">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="AO35">
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3883,6 +3948,9 @@
       <c r="AN36">
         <v>0</v>
       </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4008,6 +4076,9 @@
       <c r="AN37">
         <v>0</v>
       </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4136,6 +4207,9 @@
       <c r="AN38">
         <v>0</v>
       </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4337,6 +4411,9 @@
       <c r="AN41">
         <v>0</v>
       </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4462,6 +4539,9 @@
       <c r="AN42">
         <v>0</v>
       </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4584,6 +4664,9 @@
       <c r="AN43">
         <v>0</v>
       </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4694,6 +4777,9 @@
       <c r="AN44">
         <v>0</v>
       </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4822,6 +4908,9 @@
       <c r="AN45">
         <v>0</v>
       </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4950,6 +5039,9 @@
       <c r="AN46">
         <v>0</v>
       </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5078,6 +5170,9 @@
       <c r="AN47">
         <v>0</v>
       </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5206,6 +5301,9 @@
       <c r="AN48">
         <v>0</v>
       </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5334,6 +5432,9 @@
       <c r="AN49">
         <v>0</v>
       </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5462,6 +5563,9 @@
       <c r="AN50">
         <v>0</v>
       </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5581,6 +5685,9 @@
       <c r="AN51">
         <v>0</v>
       </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5664,6 +5771,9 @@
       <c r="AM52">
         <v>0</v>
       </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5792,6 +5902,9 @@
       <c r="AN53">
         <v>0</v>
       </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5902,6 +6015,9 @@
       <c r="AN54">
         <v>0</v>
       </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5979,6 +6095,9 @@
       <c r="AN55">
         <v>0</v>
       </c>
+      <c r="AO55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6104,6 +6223,9 @@
       <c r="AN56">
         <v>0</v>
       </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6220,6 +6342,9 @@
       <c r="AN57">
         <v>0</v>
       </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6346,6 +6471,9 @@
         <v>0</v>
       </c>
       <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AQ58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,6 +563,16 @@
           <t>38</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -694,6 +704,12 @@
       <c r="AO2">
         <v>0</v>
       </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -798,6 +814,12 @@
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1039,6 +1061,12 @@
       <c r="AO5">
         <v>0</v>
       </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1170,6 +1198,12 @@
       <c r="AO6">
         <v>25</v>
       </c>
+      <c r="AP6">
+        <v>28</v>
+      </c>
+      <c r="AQ6">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1298,6 +1332,12 @@
       <c r="AO7">
         <v>0</v>
       </c>
+      <c r="AP7">
+        <v>4</v>
+      </c>
+      <c r="AQ7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1466,12 @@
       <c r="AO8">
         <v>19</v>
       </c>
+      <c r="AP8">
+        <v>26</v>
+      </c>
+      <c r="AQ8">
+        <v>22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1542,6 +1588,12 @@
       <c r="AO9">
         <v>0</v>
       </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1655,6 +1707,12 @@
       <c r="AO10">
         <v>0</v>
       </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1744,6 +1802,9 @@
       <c r="AO11">
         <v>0</v>
       </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1812,6 +1873,12 @@
       <c r="AN12">
         <v>0</v>
       </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1910,6 +1977,9 @@
       <c r="AM13">
         <v>0</v>
       </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2023,6 +2093,12 @@
       <c r="AO14">
         <v>0</v>
       </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2118,6 +2194,9 @@
       <c r="AO15">
         <v>0</v>
       </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2201,6 +2280,12 @@
       <c r="AO16">
         <v>0</v>
       </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2308,6 +2393,12 @@
       <c r="AO17">
         <v>0</v>
       </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2534,6 +2625,12 @@
       <c r="AM22">
         <v>0</v>
       </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2644,6 +2741,12 @@
       <c r="AO23">
         <v>0</v>
       </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2709,6 +2812,9 @@
       <c r="AK24">
         <v>0</v>
       </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2840,6 +2946,12 @@
       <c r="AO25">
         <v>0</v>
       </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2938,6 +3050,9 @@
       <c r="AN26">
         <v>0</v>
       </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3107,6 +3222,12 @@
       <c r="AO28">
         <v>3</v>
       </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3235,6 +3356,12 @@
       <c r="AO29">
         <v>3</v>
       </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3363,6 +3490,12 @@
       <c r="AN30">
         <v>13</v>
       </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3494,6 +3627,12 @@
       <c r="AO31">
         <v>0</v>
       </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3820,6 +3959,12 @@
       <c r="AO35">
         <v>5</v>
       </c>
+      <c r="AP35">
+        <v>4</v>
+      </c>
+      <c r="AQ35">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3951,6 +4096,12 @@
       <c r="AO36">
         <v>0</v>
       </c>
+      <c r="AP36">
+        <v>1</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4079,6 +4230,12 @@
       <c r="AO37">
         <v>0</v>
       </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4210,6 +4367,12 @@
       <c r="AO38">
         <v>0</v>
       </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4414,6 +4577,12 @@
       <c r="AO41">
         <v>0</v>
       </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4542,6 +4711,12 @@
       <c r="AO42">
         <v>0</v>
       </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4667,6 +4842,12 @@
       <c r="AO43">
         <v>0</v>
       </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4780,6 +4961,9 @@
       <c r="AO44">
         <v>0</v>
       </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4911,6 +5095,12 @@
       <c r="AO45">
         <v>0</v>
       </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5042,6 +5232,12 @@
       <c r="AO46">
         <v>0</v>
       </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5173,6 +5369,12 @@
       <c r="AO47">
         <v>0</v>
       </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5304,6 +5506,12 @@
       <c r="AO48">
         <v>0</v>
       </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5435,6 +5643,12 @@
       <c r="AO49">
         <v>0</v>
       </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5566,6 +5780,12 @@
       <c r="AO50">
         <v>0</v>
       </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5688,6 +5908,12 @@
       <c r="AO51">
         <v>0</v>
       </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5774,6 +6000,12 @@
       <c r="AO52">
         <v>0</v>
       </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5905,6 +6137,12 @@
       <c r="AO53">
         <v>0</v>
       </c>
+      <c r="AP53">
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6018,6 +6256,12 @@
       <c r="AO54">
         <v>0</v>
       </c>
+      <c r="AP54">
+        <v>0</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6098,6 +6342,12 @@
       <c r="AO55">
         <v>0</v>
       </c>
+      <c r="AP55">
+        <v>0</v>
+      </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6226,6 +6476,12 @@
       <c r="AO56">
         <v>0</v>
       </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6345,6 +6601,12 @@
       <c r="AO57">
         <v>0</v>
       </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6474,6 +6736,12 @@
         <v>0</v>
       </c>
       <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ58"/>
+  <dimension ref="A1:AR58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,6 +573,11 @@
           <t>40</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -710,6 +715,9 @@
       <c r="AQ2">
         <v>0</v>
       </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1067,6 +1075,9 @@
       <c r="AQ5">
         <v>0</v>
       </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1204,6 +1215,9 @@
       <c r="AQ6">
         <v>31</v>
       </c>
+      <c r="AR6">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1338,6 +1352,9 @@
       <c r="AQ7">
         <v>2</v>
       </c>
+      <c r="AR7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1472,6 +1489,9 @@
       <c r="AQ8">
         <v>22</v>
       </c>
+      <c r="AR8">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1594,6 +1614,9 @@
       <c r="AQ9">
         <v>0</v>
       </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1805,6 +1828,9 @@
       <c r="AP11">
         <v>0</v>
       </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1980,6 +2006,9 @@
       <c r="AP13">
         <v>0</v>
       </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2099,6 +2128,9 @@
       <c r="AQ14">
         <v>0</v>
       </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2286,6 +2318,9 @@
       <c r="AQ16">
         <v>0</v>
       </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2399,6 +2434,9 @@
       <c r="AQ17">
         <v>0</v>
       </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2631,6 +2669,9 @@
       <c r="AQ22">
         <v>0</v>
       </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2747,6 +2788,9 @@
       <c r="AQ23">
         <v>0</v>
       </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2815,6 +2859,9 @@
       <c r="AQ24">
         <v>0</v>
       </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2952,6 +2999,9 @@
       <c r="AQ25">
         <v>1</v>
       </c>
+      <c r="AR25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3053,6 +3103,9 @@
       <c r="AP26">
         <v>0</v>
       </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3362,6 +3415,9 @@
       <c r="AQ29">
         <v>1</v>
       </c>
+      <c r="AR29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3496,6 +3552,9 @@
       <c r="AQ30">
         <v>0</v>
       </c>
+      <c r="AR30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3633,6 +3692,9 @@
       <c r="AQ31">
         <v>0</v>
       </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3965,6 +4027,9 @@
       <c r="AQ35">
         <v>8</v>
       </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4004,37 +4069,37 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
         <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
       </c>
       <c r="P36">
         <v>2</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4100,6 +4165,9 @@
         <v>1</v>
       </c>
       <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
         <v>0</v>
       </c>
     </row>
@@ -4236,6 +4304,9 @@
       <c r="AQ37">
         <v>0</v>
       </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4373,6 +4444,9 @@
       <c r="AQ38">
         <v>0</v>
       </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4583,6 +4657,9 @@
       <c r="AQ41">
         <v>0</v>
       </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4717,6 +4794,9 @@
       <c r="AQ42">
         <v>0</v>
       </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4848,6 +4928,9 @@
       <c r="AQ43">
         <v>0</v>
       </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4964,6 +5047,12 @@
       <c r="AP44">
         <v>0</v>
       </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5101,6 +5190,9 @@
       <c r="AQ45">
         <v>0</v>
       </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5238,6 +5330,9 @@
       <c r="AQ46">
         <v>0</v>
       </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5375,6 +5470,9 @@
       <c r="AQ47">
         <v>0</v>
       </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5512,6 +5610,9 @@
       <c r="AQ48">
         <v>0</v>
       </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5649,6 +5750,9 @@
       <c r="AQ49">
         <v>0</v>
       </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5786,6 +5890,9 @@
       <c r="AQ50">
         <v>0</v>
       </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5914,6 +6021,9 @@
       <c r="AQ51">
         <v>0</v>
       </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6143,6 +6253,9 @@
       <c r="AQ53">
         <v>0</v>
       </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6262,6 +6375,9 @@
       <c r="AQ54">
         <v>0</v>
       </c>
+      <c r="AR54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6348,6 +6464,9 @@
       <c r="AQ55">
         <v>0</v>
       </c>
+      <c r="AR55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6482,6 +6601,9 @@
       <c r="AQ56">
         <v>0</v>
       </c>
+      <c r="AR56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6607,6 +6729,9 @@
       <c r="AQ57">
         <v>0</v>
       </c>
+      <c r="AR57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6742,6 +6867,9 @@
         <v>0</v>
       </c>
       <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR58"/>
+  <dimension ref="A1:AS58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,6 +578,11 @@
           <t>41</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -718,6 +723,9 @@
       <c r="AR2">
         <v>0</v>
       </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -828,6 +836,9 @@
       <c r="AQ3">
         <v>0</v>
       </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -952,7 +963,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO Y ODONTOLOGICO DE LA CIRCUNVALAR</t>
+          <t>CAJA DE COMPENSACION FAMILIAR DE RISARALDA COMFAMI</t>
         </is>
       </c>
       <c r="D5">
@@ -1076,6 +1087,9 @@
         <v>0</v>
       </c>
       <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>0</v>
       </c>
     </row>
@@ -1092,7 +1106,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CLINICA COMFAMILIAR</t>
+          <t>CAJA DE COMPENSACION FAMILIAR DE RISARALDA COMFAMI</t>
         </is>
       </c>
       <c r="D6">
@@ -1355,6 +1369,9 @@
       <c r="AR7">
         <v>2</v>
       </c>
+      <c r="AS7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1492,6 +1509,9 @@
       <c r="AR8">
         <v>16</v>
       </c>
+      <c r="AS8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1617,6 +1637,9 @@
       <c r="AR9">
         <v>0</v>
       </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1736,6 +1759,9 @@
       <c r="AQ10">
         <v>0</v>
       </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1831,6 +1857,9 @@
       <c r="AR11">
         <v>0</v>
       </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2131,6 +2160,9 @@
       <c r="AR14">
         <v>0</v>
       </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2321,6 +2353,9 @@
       <c r="AR16">
         <v>0</v>
       </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2437,6 +2472,9 @@
       <c r="AR17">
         <v>0</v>
       </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2571,6 +2609,9 @@
       <c r="AN21">
         <v>0</v>
       </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2672,6 +2713,9 @@
       <c r="AR22">
         <v>0</v>
       </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2791,6 +2835,9 @@
       <c r="AR23">
         <v>0</v>
       </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2862,6 +2909,9 @@
       <c r="AR24">
         <v>0</v>
       </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3002,6 +3052,9 @@
       <c r="AR25">
         <v>2</v>
       </c>
+      <c r="AS25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3281,6 +3334,12 @@
       <c r="AQ28">
         <v>1</v>
       </c>
+      <c r="AR28">
+        <v>5</v>
+      </c>
+      <c r="AS28">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3418,6 +3477,9 @@
       <c r="AR29">
         <v>2</v>
       </c>
+      <c r="AS29">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3555,6 +3617,9 @@
       <c r="AR30">
         <v>3</v>
       </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3695,6 +3760,9 @@
       <c r="AR31">
         <v>0</v>
       </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4170,6 +4238,9 @@
       <c r="AR36">
         <v>0</v>
       </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4307,6 +4378,9 @@
       <c r="AR37">
         <v>0</v>
       </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4447,6 +4521,9 @@
       <c r="AR38">
         <v>0</v>
       </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4660,6 +4737,9 @@
       <c r="AR41">
         <v>0</v>
       </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4797,6 +4877,9 @@
       <c r="AR42">
         <v>0</v>
       </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4931,6 +5014,9 @@
       <c r="AR43">
         <v>0</v>
       </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4945,7 +5031,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GRUPO EMI</t>
+          <t>EMPRESA DE MEDICINA INTEGRAL EMI SA - SERVICIO DE</t>
         </is>
       </c>
       <c r="D44">
@@ -5193,6 +5279,9 @@
       <c r="AR45">
         <v>0</v>
       </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5333,6 +5422,9 @@
       <c r="AR46">
         <v>0</v>
       </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5473,6 +5565,9 @@
       <c r="AR47">
         <v>0</v>
       </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5613,6 +5708,9 @@
       <c r="AR48">
         <v>0</v>
       </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5753,6 +5851,9 @@
       <c r="AR49">
         <v>0</v>
       </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5893,6 +5994,9 @@
       <c r="AR50">
         <v>0</v>
       </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6024,6 +6128,9 @@
       <c r="AR51">
         <v>0</v>
       </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6256,6 +6363,9 @@
       <c r="AR53">
         <v>0</v>
       </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6378,6 +6488,9 @@
       <c r="AR54">
         <v>1</v>
       </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6467,6 +6580,9 @@
       <c r="AR55">
         <v>0</v>
       </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6604,6 +6720,9 @@
       <c r="AR56">
         <v>0</v>
       </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6732,6 +6851,9 @@
       <c r="AR57">
         <v>0</v>
       </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6870,6 +6992,9 @@
         <v>0</v>
       </c>
       <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS58"/>
+  <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,6 +583,11 @@
           <t>42</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -726,6 +731,9 @@
       <c r="AS2">
         <v>0</v>
       </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AS3">
         <v>0</v>
       </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1092,6 +1103,9 @@
       <c r="AS5">
         <v>0</v>
       </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1232,6 +1246,12 @@
       <c r="AR6">
         <v>20</v>
       </c>
+      <c r="AS6">
+        <v>26</v>
+      </c>
+      <c r="AT6">
+        <v>20</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1372,6 +1392,9 @@
       <c r="AS7">
         <v>2</v>
       </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1512,6 +1535,9 @@
       <c r="AS8">
         <v>12</v>
       </c>
+      <c r="AT8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1640,6 +1666,9 @@
       <c r="AS9">
         <v>0</v>
       </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1762,6 +1791,9 @@
       <c r="AS10">
         <v>0</v>
       </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1934,6 +1966,9 @@
       <c r="AQ12">
         <v>0</v>
       </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2038,6 +2073,9 @@
       <c r="AR13">
         <v>0</v>
       </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2163,6 +2201,9 @@
       <c r="AS14">
         <v>0</v>
       </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2261,6 +2302,9 @@
       <c r="AQ15">
         <v>0</v>
       </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2356,6 +2400,9 @@
       <c r="AS16">
         <v>0</v>
       </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2475,6 +2522,9 @@
       <c r="AS17">
         <v>0</v>
       </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2516,6 +2566,9 @@
       <c r="AO18">
         <v>0</v>
       </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2566,6 +2619,9 @@
       <c r="AO19">
         <v>0</v>
       </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2838,6 +2894,9 @@
       <c r="AS23">
         <v>0</v>
       </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3055,6 +3114,9 @@
       <c r="AS25">
         <v>2</v>
       </c>
+      <c r="AT25">
+        <v>8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3159,6 +3221,9 @@
       <c r="AR26">
         <v>0</v>
       </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3340,6 +3405,9 @@
       <c r="AS28">
         <v>3</v>
       </c>
+      <c r="AT28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3381,6 +3449,9 @@
       <c r="K29">
         <v>5</v>
       </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
       <c r="M29">
         <v>2</v>
       </c>
@@ -3479,6 +3550,9 @@
       </c>
       <c r="AS29">
         <v>4</v>
+      </c>
+      <c r="AT29">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -3608,6 +3682,9 @@
       <c r="AN30">
         <v>13</v>
       </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
       <c r="AP30">
         <v>1</v>
       </c>
@@ -3619,6 +3696,9 @@
       </c>
       <c r="AS30">
         <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3763,6 +3843,9 @@
       <c r="AS31">
         <v>0</v>
       </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3958,6 +4041,15 @@
       <c r="AK34">
         <v>0</v>
       </c>
+      <c r="AR34">
+        <v>3</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4098,6 +4190,12 @@
       <c r="AR35">
         <v>0</v>
       </c>
+      <c r="AS35">
+        <v>4</v>
+      </c>
+      <c r="AT35">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4173,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X36">
         <v>1</v>
       </c>
       <c r="Y36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -4206,20 +4304,20 @@
         <v>0</v>
       </c>
       <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>2</v>
+      </c>
+      <c r="AL36">
         <v>1</v>
       </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>1</v>
-      </c>
-      <c r="AK36">
-        <v>1</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
       <c r="AM36">
         <v>0</v>
       </c>
@@ -4230,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -4239,6 +4337,9 @@
         <v>0</v>
       </c>
       <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
         <v>0</v>
       </c>
     </row>
@@ -4381,6 +4482,9 @@
       <c r="AS37">
         <v>0</v>
       </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4524,6 +4628,9 @@
       <c r="AS38">
         <v>0</v>
       </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4880,6 +4987,9 @@
       <c r="AS42">
         <v>0</v>
       </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5017,6 +5127,9 @@
       <c r="AS43">
         <v>0</v>
       </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5139,6 +5252,9 @@
       <c r="AR44">
         <v>0</v>
       </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5282,6 +5398,9 @@
       <c r="AS45">
         <v>0</v>
       </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5425,6 +5544,9 @@
       <c r="AS46">
         <v>0</v>
       </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5568,6 +5690,9 @@
       <c r="AS47">
         <v>0</v>
       </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5711,6 +5836,9 @@
       <c r="AS48">
         <v>0</v>
       </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5854,6 +5982,9 @@
       <c r="AS49">
         <v>0</v>
       </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5997,6 +6128,9 @@
       <c r="AS50">
         <v>0</v>
       </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6131,6 +6265,9 @@
       <c r="AS51">
         <v>0</v>
       </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6366,6 +6503,9 @@
       <c r="AS53">
         <v>0</v>
       </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6491,6 +6631,9 @@
       <c r="AS54">
         <v>0</v>
       </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6583,6 +6726,9 @@
       <c r="AS55">
         <v>0</v>
       </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6723,6 +6869,9 @@
       <c r="AS56">
         <v>0</v>
       </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6854,6 +7003,9 @@
       <c r="AS57">
         <v>0</v>
       </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6995,6 +7147,9 @@
         <v>0</v>
       </c>
       <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT58"/>
+  <dimension ref="A1:AV58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,6 +588,16 @@
           <t>43</t>
         </is>
       </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -734,6 +744,12 @@
       <c r="AT2">
         <v>0</v>
       </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +866,9 @@
       <c r="AT3">
         <v>0</v>
       </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1106,6 +1125,12 @@
       <c r="AT5">
         <v>0</v>
       </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1252,6 +1277,12 @@
       <c r="AT6">
         <v>20</v>
       </c>
+      <c r="AU6">
+        <v>18</v>
+      </c>
+      <c r="AV6">
+        <v>33</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1395,6 +1426,12 @@
       <c r="AT7">
         <v>1</v>
       </c>
+      <c r="AU7">
+        <v>18</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1538,6 +1575,12 @@
       <c r="AT8">
         <v>8</v>
       </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1669,6 +1712,12 @@
       <c r="AT9">
         <v>0</v>
       </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1794,6 +1843,9 @@
       <c r="AT10">
         <v>0</v>
       </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1969,6 +2021,12 @@
       <c r="AT12">
         <v>0</v>
       </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2076,6 +2134,9 @@
       <c r="AT13">
         <v>0</v>
       </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2204,6 +2265,12 @@
       <c r="AT14">
         <v>0</v>
       </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2305,6 +2372,12 @@
       <c r="AT15">
         <v>0</v>
       </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2403,6 +2476,9 @@
       <c r="AT16">
         <v>0</v>
       </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2525,6 +2601,9 @@
       <c r="AT17">
         <v>0</v>
       </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2772,6 +2851,9 @@
       <c r="AS22">
         <v>0</v>
       </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2897,6 +2979,12 @@
       <c r="AT23">
         <v>0</v>
       </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2971,6 +3059,9 @@
       <c r="AS24">
         <v>0</v>
       </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3117,6 +3208,12 @@
       <c r="AT25">
         <v>8</v>
       </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3224,6 +3321,9 @@
       <c r="AT26">
         <v>0</v>
       </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3408,6 +3508,12 @@
       <c r="AT28">
         <v>5</v>
       </c>
+      <c r="AU28">
+        <v>4</v>
+      </c>
+      <c r="AV28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3554,6 +3660,12 @@
       <c r="AT29">
         <v>6</v>
       </c>
+      <c r="AU29">
+        <v>3</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3700,6 +3812,12 @@
       <c r="AT30">
         <v>2</v>
       </c>
+      <c r="AU30">
+        <v>2</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3748,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -3766,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3814,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31">
         <v>0</v>
@@ -3823,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31">
         <v>0</v>
@@ -3844,6 +3962,12 @@
         <v>0</v>
       </c>
       <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
         <v>0</v>
       </c>
     </row>
@@ -4050,6 +4174,9 @@
       <c r="AT34">
         <v>0</v>
       </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4196,6 +4323,12 @@
       <c r="AT35">
         <v>6</v>
       </c>
+      <c r="AU35">
+        <v>2</v>
+      </c>
+      <c r="AV35">
+        <v>5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4342,6 +4475,12 @@
       <c r="AT36">
         <v>0</v>
       </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4485,6 +4624,12 @@
       <c r="AT37">
         <v>0</v>
       </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4631,6 +4776,12 @@
       <c r="AT38">
         <v>0</v>
       </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4722,6 +4873,9 @@
       <c r="AM40">
         <v>0</v>
       </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4847,6 +5001,15 @@
       <c r="AS41">
         <v>0</v>
       </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4990,6 +5153,12 @@
       <c r="AT42">
         <v>0</v>
       </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5130,6 +5299,12 @@
       <c r="AT43">
         <v>0</v>
       </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5255,6 +5430,9 @@
       <c r="AT44">
         <v>0</v>
       </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5401,6 +5579,12 @@
       <c r="AT45">
         <v>0</v>
       </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5547,6 +5731,12 @@
       <c r="AT46">
         <v>0</v>
       </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5693,6 +5883,12 @@
       <c r="AT47">
         <v>0</v>
       </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5839,6 +6035,12 @@
       <c r="AT48">
         <v>0</v>
       </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5985,6 +6187,12 @@
       <c r="AT49">
         <v>0</v>
       </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6131,6 +6339,12 @@
       <c r="AT50">
         <v>0</v>
       </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6268,6 +6482,9 @@
       <c r="AT51">
         <v>0</v>
       </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6282,7 +6499,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+          <t>COOMEVA EXPERIENCIA MEDICA SAS</t>
         </is>
       </c>
       <c r="F52">
@@ -6506,6 +6723,12 @@
       <c r="AT53">
         <v>0</v>
       </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6634,6 +6857,12 @@
       <c r="AT54">
         <v>0</v>
       </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6729,6 +6958,12 @@
       <c r="AT55">
         <v>0</v>
       </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6872,6 +7107,12 @@
       <c r="AT56">
         <v>0</v>
       </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7006,6 +7247,12 @@
       <c r="AT57">
         <v>0</v>
       </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7150,6 +7397,12 @@
         <v>0</v>
       </c>
       <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV58"/>
+  <dimension ref="A1:AW59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,6 +598,11 @@
           <t>45</t>
         </is>
       </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -750,6 +755,9 @@
       <c r="AV2">
         <v>0</v>
       </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1131,6 +1139,9 @@
       <c r="AV5">
         <v>0</v>
       </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1283,6 +1294,9 @@
       <c r="AV6">
         <v>33</v>
       </c>
+      <c r="AW6">
+        <v>32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1432,6 +1446,9 @@
       <c r="AV7">
         <v>0</v>
       </c>
+      <c r="AW7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1581,6 +1598,9 @@
       <c r="AV8">
         <v>8</v>
       </c>
+      <c r="AW8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1718,6 +1738,9 @@
       <c r="AV9">
         <v>0</v>
       </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1846,6 +1869,9 @@
       <c r="AU10">
         <v>0</v>
       </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1944,6 +1970,9 @@
       <c r="AS11">
         <v>0</v>
       </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2027,6 +2056,9 @@
       <c r="AV12">
         <v>0</v>
       </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2985,6 +3017,9 @@
       <c r="AV23">
         <v>0</v>
       </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3214,6 +3249,9 @@
       <c r="AV25">
         <v>4</v>
       </c>
+      <c r="AW25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3324,6 +3362,9 @@
       <c r="AV26">
         <v>0</v>
       </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3514,6 +3555,9 @@
       <c r="AV28">
         <v>5</v>
       </c>
+      <c r="AW28">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3666,6 +3710,9 @@
       <c r="AV29">
         <v>2</v>
       </c>
+      <c r="AW29">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3970,6 +4017,9 @@
       <c r="AV31">
         <v>0</v>
       </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4177,6 +4227,12 @@
       <c r="AU34">
         <v>0</v>
       </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4329,6 +4385,9 @@
       <c r="AV35">
         <v>5</v>
       </c>
+      <c r="AW35">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4481,6 +4540,9 @@
       <c r="AV36">
         <v>0</v>
       </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4630,6 +4692,9 @@
       <c r="AV37">
         <v>0</v>
       </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4782,6 +4847,9 @@
       <c r="AV38">
         <v>0</v>
       </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5010,6 +5078,9 @@
       <c r="AV41">
         <v>0</v>
       </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5159,6 +5230,9 @@
       <c r="AV42">
         <v>0</v>
       </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5305,139 +5379,34 @@
       <c r="AV43">
         <v>0</v>
       </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102453</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EMPRESA DE MEDICINA INTEGRAL EMI SA - SERVICIO DE</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>0</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
+          <t>VITALCARE IPS SAS</t>
+        </is>
+      </c>
+      <c r="AW44">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5447,7 +5416,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>EMPRESA DE MEDICINA INTEGRAL EMI SA - SERVICIO DE</t>
         </is>
       </c>
       <c r="D45">
@@ -5462,9 +5431,6 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0</v>
       </c>
@@ -5507,9 +5473,6 @@
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
       <c r="X45">
         <v>0</v>
       </c>
@@ -5528,9 +5491,6 @@
       <c r="AC45">
         <v>0</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
       <c r="AE45">
         <v>0</v>
       </c>
@@ -5540,15 +5500,6 @@
       <c r="AG45">
         <v>0</v>
       </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
@@ -5573,16 +5524,13 @@
       <c r="AR45">
         <v>0</v>
       </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
       <c r="AT45">
         <v>0</v>
       </c>
       <c r="AU45">
         <v>0</v>
       </c>
-      <c r="AV45">
+      <c r="AW45">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +5542,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D46">
@@ -5735,6 +5683,9 @@
         <v>0</v>
       </c>
       <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
         <v>0</v>
       </c>
     </row>
@@ -5746,12 +5697,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D47">
@@ -5887,6 +5838,9 @@
         <v>0</v>
       </c>
       <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
         <v>0</v>
       </c>
     </row>
@@ -5898,12 +5852,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D48">
@@ -6039,23 +5993,26 @@
         <v>0</v>
       </c>
       <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D49">
@@ -6191,13 +6148,16 @@
         <v>0</v>
       </c>
       <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6207,7 +6167,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D50">
@@ -6343,13 +6303,16 @@
         <v>0</v>
       </c>
       <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6359,7 +6322,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>NEUROMEDICA SAS</t>
         </is>
       </c>
       <c r="D51">
@@ -6368,6 +6331,9 @@
       <c r="E51">
         <v>0</v>
       </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
       <c r="G51">
         <v>0</v>
       </c>
@@ -6401,6 +6367,9 @@
       <c r="Q51">
         <v>0</v>
       </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
       <c r="S51">
         <v>0</v>
       </c>
@@ -6422,6 +6391,9 @@
       <c r="Y51">
         <v>0</v>
       </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
       <c r="AA51">
         <v>0</v>
       </c>
@@ -6483,13 +6455,19 @@
         <v>0</v>
       </c>
       <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6499,10 +6477,13 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>COOMEVA EXPERIENCIA MEDICA SAS</t>
-        </is>
-      </c>
-      <c r="F52">
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>0</v>
       </c>
       <c r="G52">
@@ -6511,25 +6492,34 @@
       <c r="H52">
         <v>0</v>
       </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
       </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
       <c r="P52">
         <v>0</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
@@ -6550,15 +6540,36 @@
       <c r="Y52">
         <v>0</v>
       </c>
-      <c r="Z52">
+      <c r="AA52">
         <v>0</v>
       </c>
       <c r="AB52">
         <v>0</v>
       </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
       <c r="AD52">
         <v>0</v>
       </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
       <c r="AK52">
         <v>0</v>
       </c>
@@ -6568,6 +6579,9 @@
       <c r="AM52">
         <v>0</v>
       </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
       <c r="AO52">
         <v>0</v>
       </c>
@@ -6575,13 +6589,25 @@
         <v>0</v>
       </c>
       <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6591,14 +6617,8 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
+          <t>COOMEVA EXPERIENCIA MEDICA SAS</t>
+        </is>
       </c>
       <c r="F53">
         <v>0</v>
@@ -6607,19 +6627,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -6627,9 +6641,6 @@
       <c r="N53">
         <v>0</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
       <c r="P53">
         <v>0</v>
       </c>
@@ -6639,11 +6650,8 @@
       <c r="R53">
         <v>0</v>
       </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -6658,41 +6666,17 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
       <c r="AB53">
         <v>0</v>
       </c>
-      <c r="AC53">
-        <v>0</v>
-      </c>
       <c r="AD53">
         <v>0</v>
       </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
@@ -6702,9 +6686,6 @@
       <c r="AM53">
         <v>0</v>
       </c>
-      <c r="AN53">
-        <v>0</v>
-      </c>
       <c r="AO53">
         <v>0</v>
       </c>
@@ -6712,28 +6693,13 @@
         <v>0</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
-      </c>
-      <c r="AR53">
-        <v>0</v>
-      </c>
-      <c r="AS53">
-        <v>0</v>
-      </c>
-      <c r="AT53">
-        <v>0</v>
-      </c>
-      <c r="AU53">
-        <v>0</v>
-      </c>
-      <c r="AV53">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6600103334</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6743,17 +6709,35 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CLINICA CENTRAL DEL EJE SAS</t>
-        </is>
+          <t>CLINICA LOS NEVADOS SAS</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -6765,16 +6749,16 @@
         <v>0</v>
       </c>
       <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
         <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
       </c>
       <c r="T54">
         <v>1</v>
@@ -6792,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -6804,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54">
         <v>0</v>
@@ -6822,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ54">
         <v>0</v>
@@ -6849,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AR54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS54">
         <v>0</v>
@@ -6861,13 +6845,16 @@
         <v>0</v>
       </c>
       <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6600103414</t>
+          <t>6600103334</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6877,8 +6864,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CLINICA MEDICA TURIN SAS</t>
-        </is>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
+        </is>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -6905,7 +6925,7 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -6923,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ55">
         <v>0</v>
@@ -6950,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS55">
         <v>0</v>
@@ -6962,72 +6982,27 @@
         <v>0</v>
       </c>
       <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103414</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <v>0</v>
+          <t>CLINICA MEDICA TURIN SAS</t>
+        </is>
       </c>
       <c r="U56">
         <v>0</v>
@@ -7111,23 +7086,26 @@
         <v>0</v>
       </c>
       <c r="AV56">
+        <v>0</v>
+      </c>
+      <c r="AW56">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600161600</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>EPMSC PEREIRA</t>
         </is>
       </c>
       <c r="D57">
@@ -7151,6 +7129,9 @@
       <c r="K57">
         <v>0</v>
       </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
       <c r="M57">
         <v>0</v>
       </c>
@@ -7166,6 +7147,9 @@
       <c r="Q57">
         <v>0</v>
       </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
       <c r="S57">
         <v>0</v>
       </c>
@@ -7217,6 +7201,9 @@
       <c r="AI57">
         <v>0</v>
       </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
       <c r="AK57">
         <v>0</v>
       </c>
@@ -7251,158 +7238,307 @@
         <v>0</v>
       </c>
       <c r="AV57">
+        <v>0</v>
+      </c>
+      <c r="AW57">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
+      </c>
+      <c r="AF58">
+        <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <v>0</v>
-      </c>
-      <c r="AD58">
-        <v>0</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>0</v>
-      </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
-      <c r="AK58">
-        <v>0</v>
-      </c>
-      <c r="AL58">
-        <v>0</v>
-      </c>
-      <c r="AM58">
-        <v>0</v>
-      </c>
-      <c r="AN58">
-        <v>0</v>
-      </c>
-      <c r="AO58">
-        <v>0</v>
-      </c>
-      <c r="AP58">
-        <v>0</v>
-      </c>
-      <c r="AQ58">
-        <v>0</v>
-      </c>
-      <c r="AR58">
-        <v>0</v>
-      </c>
-      <c r="AS58">
-        <v>0</v>
-      </c>
-      <c r="AT58">
-        <v>0</v>
-      </c>
-      <c r="AU58">
-        <v>0</v>
-      </c>
-      <c r="AV58">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>0</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW59"/>
+  <dimension ref="A1:AY59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,6 +603,16 @@
           <t>46</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -758,6 +768,12 @@
       <c r="AW2">
         <v>0</v>
       </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -796,6 +812,9 @@
       <c r="J3">
         <v>0</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>0</v>
       </c>
@@ -823,15 +842,27 @@
       <c r="T3">
         <v>0</v>
       </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
       <c r="V3">
         <v>0</v>
       </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
       <c r="AB3">
         <v>0</v>
       </c>
@@ -841,15 +872,24 @@
       <c r="AD3">
         <v>0</v>
       </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
       </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
       <c r="AK3">
         <v>0</v>
       </c>
@@ -862,10 +902,16 @@
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
         <v>0</v>
       </c>
       <c r="AS3">
@@ -1142,6 +1188,12 @@
       <c r="AW5">
         <v>0</v>
       </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1297,6 +1349,12 @@
       <c r="AW6">
         <v>32</v>
       </c>
+      <c r="AX6">
+        <v>37</v>
+      </c>
+      <c r="AY6">
+        <v>37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1449,6 +1507,12 @@
       <c r="AW7">
         <v>5</v>
       </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1601,6 +1665,12 @@
       <c r="AW8">
         <v>9</v>
       </c>
+      <c r="AX8">
+        <v>24</v>
+      </c>
+      <c r="AY8">
+        <v>20</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1741,6 +1811,9 @@
       <c r="AW9">
         <v>0</v>
       </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1872,6 +1945,9 @@
       <c r="AW10">
         <v>0</v>
       </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1973,6 +2049,9 @@
       <c r="AW11">
         <v>0</v>
       </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2059,6 +2138,12 @@
       <c r="AW12">
         <v>0</v>
       </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2169,6 +2254,9 @@
       <c r="AV13">
         <v>0</v>
       </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2303,6 +2391,12 @@
       <c r="AV14">
         <v>0</v>
       </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2410,6 +2504,12 @@
       <c r="AV15">
         <v>0</v>
       </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2511,6 +2611,12 @@
       <c r="AV16">
         <v>0</v>
       </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2733,6 +2839,9 @@
       <c r="AT19">
         <v>0</v>
       </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2753,6 +2862,9 @@
       <c r="X20">
         <v>0</v>
       </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2886,6 +2998,12 @@
       <c r="AV22">
         <v>0</v>
       </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3020,6 +3138,12 @@
       <c r="AW23">
         <v>0</v>
       </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3252,6 +3376,12 @@
       <c r="AW25">
         <v>3</v>
       </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3365,6 +3495,12 @@
       <c r="AW26">
         <v>0</v>
       </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3535,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -3557,6 +3693,12 @@
       </c>
       <c r="AW28">
         <v>5</v>
+      </c>
+      <c r="AX28">
+        <v>8</v>
+      </c>
+      <c r="AY28">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -3713,6 +3855,12 @@
       <c r="AW29">
         <v>2</v>
       </c>
+      <c r="AX29">
+        <v>2</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3865,6 +4013,15 @@
       <c r="AV30">
         <v>3</v>
       </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>2</v>
+      </c>
+      <c r="AY30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4020,6 +4177,12 @@
       <c r="AW31">
         <v>0</v>
       </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4233,6 +4396,12 @@
       <c r="AW34">
         <v>0</v>
       </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4388,6 +4557,12 @@
       <c r="AW35">
         <v>2</v>
       </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4543,6 +4718,9 @@
       <c r="AW36">
         <v>0</v>
       </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4695,6 +4873,12 @@
       <c r="AW37">
         <v>0</v>
       </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4850,6 +5034,12 @@
       <c r="AW38">
         <v>0</v>
       </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4944,6 +5134,9 @@
       <c r="AU40">
         <v>0</v>
       </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5081,6 +5274,12 @@
       <c r="AW41">
         <v>0</v>
       </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5233,6 +5432,12 @@
       <c r="AW42">
         <v>0</v>
       </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5382,6 +5587,12 @@
       <c r="AW43">
         <v>0</v>
       </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5402,6 +5613,12 @@
       <c r="AW44">
         <v>0</v>
       </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5533,6 +5750,9 @@
       <c r="AW45">
         <v>0</v>
       </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5688,6 +5908,12 @@
       <c r="AW46">
         <v>0</v>
       </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5843,6 +6069,12 @@
       <c r="AW47">
         <v>0</v>
       </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5998,6 +6230,12 @@
       <c r="AW48">
         <v>0</v>
       </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6153,6 +6391,12 @@
       <c r="AW49">
         <v>0</v>
       </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6308,6 +6552,12 @@
       <c r="AW50">
         <v>0</v>
       </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6463,6 +6713,12 @@
       <c r="AW51">
         <v>0</v>
       </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6695,6 +6951,15 @@
       <c r="AQ53">
         <v>0</v>
       </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>0</v>
+      </c>
+      <c r="AY53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6850,6 +7115,12 @@
       <c r="AW54">
         <v>0</v>
       </c>
+      <c r="AX54">
+        <v>0</v>
+      </c>
+      <c r="AY54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6987,6 +7258,12 @@
       <c r="AW55">
         <v>0</v>
       </c>
+      <c r="AX55">
+        <v>0</v>
+      </c>
+      <c r="AY55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7091,6 +7368,12 @@
       <c r="AW56">
         <v>0</v>
       </c>
+      <c r="AX56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7243,6 +7526,12 @@
       <c r="AW57">
         <v>0</v>
       </c>
+      <c r="AX57">
+        <v>0</v>
+      </c>
+      <c r="AY57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7386,6 +7675,12 @@
       <c r="AW58">
         <v>0</v>
       </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+      <c r="AY58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7539,6 +7834,12 @@
         <v>0</v>
       </c>
       <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>0</v>
+      </c>
+      <c r="AY59">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY59"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,6 +613,11 @@
           <t>48</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -774,6 +779,9 @@
       <c r="AY2">
         <v>0</v>
       </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1194,6 +1202,9 @@
       <c r="AY5">
         <v>0</v>
       </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1355,6 +1366,9 @@
       <c r="AY6">
         <v>37</v>
       </c>
+      <c r="AZ6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1513,6 +1527,9 @@
       <c r="AY7">
         <v>4</v>
       </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1671,6 +1688,9 @@
       <c r="AY8">
         <v>20</v>
       </c>
+      <c r="AZ8">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1814,6 +1834,9 @@
       <c r="AX9">
         <v>0</v>
       </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1948,6 +1971,9 @@
       <c r="AY10">
         <v>0</v>
       </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2052,6 +2078,9 @@
       <c r="AX11">
         <v>0</v>
       </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2144,6 +2173,9 @@
       <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2397,6 +2429,9 @@
       <c r="AY14">
         <v>0</v>
       </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2617,6 +2652,9 @@
       <c r="AY16">
         <v>0</v>
       </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2742,6 +2780,9 @@
       <c r="AV17">
         <v>0</v>
       </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3144,6 +3185,9 @@
       <c r="AY23">
         <v>0</v>
       </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3382,6 +3426,9 @@
       <c r="AY25">
         <v>3</v>
       </c>
+      <c r="AZ25">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3501,6 +3548,9 @@
       <c r="AY26">
         <v>0</v>
       </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3700,6 +3750,9 @@
       <c r="AY28">
         <v>6</v>
       </c>
+      <c r="AZ28">
+        <v>7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3861,6 +3914,9 @@
       <c r="AY29">
         <v>0</v>
       </c>
+      <c r="AZ29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4183,6 +4239,9 @@
       <c r="AY31">
         <v>0</v>
       </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4563,6 +4622,9 @@
       <c r="AY35">
         <v>4</v>
       </c>
+      <c r="AZ35">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4721,6 +4783,12 @@
       <c r="AX36">
         <v>0</v>
       </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4879,6 +4947,9 @@
       <c r="AY37">
         <v>0</v>
       </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5040,6 +5111,9 @@
       <c r="AY38">
         <v>0</v>
       </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5280,6 +5354,9 @@
       <c r="AY41">
         <v>0</v>
       </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5438,6 +5515,9 @@
       <c r="AY42">
         <v>0</v>
       </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5515,12 +5595,18 @@
       <c r="W43">
         <v>0</v>
       </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
       <c r="Y43">
         <v>0</v>
       </c>
       <c r="Z43">
         <v>0</v>
       </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
       <c r="AB43">
         <v>0</v>
       </c>
@@ -5591,6 +5677,9 @@
         <v>0</v>
       </c>
       <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
         <v>0</v>
       </c>
     </row>
@@ -5619,6 +5708,9 @@
       <c r="AY44">
         <v>0</v>
       </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5753,6 +5845,9 @@
       <c r="AY45">
         <v>0</v>
       </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5914,6 +6009,9 @@
       <c r="AY46">
         <v>0</v>
       </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6075,6 +6173,9 @@
       <c r="AY47">
         <v>0</v>
       </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6236,6 +6337,9 @@
       <c r="AY48">
         <v>0</v>
       </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6397,6 +6501,9 @@
       <c r="AY49">
         <v>0</v>
       </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6558,6 +6665,9 @@
       <c r="AY50">
         <v>0</v>
       </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6719,6 +6829,9 @@
       <c r="AY51">
         <v>0</v>
       </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7121,6 +7234,9 @@
       <c r="AY54">
         <v>0</v>
       </c>
+      <c r="AZ54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7264,6 +7380,9 @@
       <c r="AY55">
         <v>0</v>
       </c>
+      <c r="AZ55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7374,6 +7493,9 @@
       <c r="AY56">
         <v>0</v>
       </c>
+      <c r="AZ56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7532,6 +7654,9 @@
       <c r="AY57">
         <v>0</v>
       </c>
+      <c r="AZ57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7681,6 +7806,9 @@
       <c r="AY58">
         <v>0</v>
       </c>
+      <c r="AZ58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7840,6 +7968,9 @@
         <v>0</v>
       </c>
       <c r="AY59">
+        <v>0</v>
+      </c>
+      <c r="AZ59">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ59"/>
+  <dimension ref="A1:BA59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,6 +618,11 @@
           <t>49</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -782,6 +787,9 @@
       <c r="AZ2">
         <v>0</v>
       </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -931,6 +939,9 @@
       <c r="AV3">
         <v>0</v>
       </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1205,6 +1216,9 @@
       <c r="AZ5">
         <v>0</v>
       </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1369,6 +1383,9 @@
       <c r="AZ6">
         <v>15</v>
       </c>
+      <c r="BA6">
+        <v>31</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1530,6 +1547,9 @@
       <c r="AZ7">
         <v>1</v>
       </c>
+      <c r="BA7">
+        <v>21</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1691,6 +1711,9 @@
       <c r="AZ8">
         <v>8</v>
       </c>
+      <c r="BA8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2176,6 +2199,9 @@
       <c r="AZ12">
         <v>0</v>
       </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2289,6 +2315,9 @@
       <c r="AY13">
         <v>0</v>
       </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2432,6 +2461,9 @@
       <c r="AZ14">
         <v>0</v>
       </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2545,6 +2577,9 @@
       <c r="AY15">
         <v>0</v>
       </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2655,6 +2690,9 @@
       <c r="AZ16">
         <v>0</v>
       </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2783,6 +2821,9 @@
       <c r="AZ17">
         <v>0</v>
       </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2883,6 +2924,9 @@
       <c r="AX19">
         <v>0</v>
       </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3188,6 +3232,9 @@
       <c r="AZ23">
         <v>0</v>
       </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3429,6 +3476,9 @@
       <c r="AZ25">
         <v>2</v>
       </c>
+      <c r="BA25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3753,6 +3803,9 @@
       <c r="AZ28">
         <v>7</v>
       </c>
+      <c r="BA28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3917,6 +3970,9 @@
       <c r="AZ29">
         <v>1</v>
       </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4078,6 +4134,12 @@
       <c r="AY30">
         <v>2</v>
       </c>
+      <c r="AZ30">
+        <v>2</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4242,6 +4304,9 @@
       <c r="AZ31">
         <v>0</v>
       </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4625,6 +4690,9 @@
       <c r="AZ35">
         <v>6</v>
       </c>
+      <c r="BA35">
+        <v>8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4789,6 +4857,9 @@
       <c r="AZ36">
         <v>0</v>
       </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5114,6 +5185,9 @@
       <c r="AZ38">
         <v>0</v>
       </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5357,6 +5431,9 @@
       <c r="AZ41">
         <v>0</v>
       </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5518,6 +5595,9 @@
       <c r="AZ42">
         <v>0</v>
       </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5682,6 +5762,9 @@
       <c r="AZ43">
         <v>0</v>
       </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6012,6 +6095,9 @@
       <c r="AZ46">
         <v>0</v>
       </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6176,6 +6262,9 @@
       <c r="AZ47">
         <v>0</v>
       </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6340,6 +6429,9 @@
       <c r="AZ48">
         <v>0</v>
       </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6504,6 +6596,9 @@
       <c r="AZ49">
         <v>0</v>
       </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6668,6 +6763,9 @@
       <c r="AZ50">
         <v>0</v>
       </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6832,6 +6930,9 @@
       <c r="AZ51">
         <v>0</v>
       </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7073,6 +7174,12 @@
       <c r="AY53">
         <v>0</v>
       </c>
+      <c r="AZ53">
+        <v>0</v>
+      </c>
+      <c r="BA53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7237,6 +7344,9 @@
       <c r="AZ54">
         <v>0</v>
       </c>
+      <c r="BA54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7383,6 +7493,9 @@
       <c r="AZ55">
         <v>0</v>
       </c>
+      <c r="BA55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7496,6 +7609,9 @@
       <c r="AZ56">
         <v>0</v>
       </c>
+      <c r="BA56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7657,6 +7773,9 @@
       <c r="AZ57">
         <v>0</v>
       </c>
+      <c r="BA57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7809,6 +7928,9 @@
       <c r="AZ58">
         <v>0</v>
       </c>
+      <c r="BA58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7971,6 +8093,9 @@
         <v>0</v>
       </c>
       <c r="AZ59">
+        <v>0</v>
+      </c>
+      <c r="BA59">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA59"/>
+  <dimension ref="A1:BC59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,6 +623,16 @@
           <t>50</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -790,6 +800,12 @@
       <c r="BA2">
         <v>0</v>
       </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -942,6 +958,12 @@
       <c r="BA3">
         <v>0</v>
       </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1219,6 +1241,12 @@
       <c r="BA5">
         <v>0</v>
       </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1386,6 +1414,12 @@
       <c r="BA6">
         <v>31</v>
       </c>
+      <c r="BB6">
+        <v>25</v>
+      </c>
+      <c r="BC6">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1550,6 +1584,12 @@
       <c r="BA7">
         <v>21</v>
       </c>
+      <c r="BB7">
+        <v>13</v>
+      </c>
+      <c r="BC7">
+        <v>28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1714,6 +1754,12 @@
       <c r="BA8">
         <v>12</v>
       </c>
+      <c r="BB8">
+        <v>6</v>
+      </c>
+      <c r="BC8">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1860,6 +1906,12 @@
       <c r="AZ9">
         <v>0</v>
       </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1997,6 +2049,12 @@
       <c r="AZ10">
         <v>0</v>
       </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2104,6 +2162,9 @@
       <c r="AZ11">
         <v>0</v>
       </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2464,6 +2525,12 @@
       <c r="BA14">
         <v>0</v>
       </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2580,6 +2647,9 @@
       <c r="BA15">
         <v>0</v>
       </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2693,6 +2763,12 @@
       <c r="BA16">
         <v>0</v>
       </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2824,6 +2900,9 @@
       <c r="BA17">
         <v>0</v>
       </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3235,6 +3314,9 @@
       <c r="BA23">
         <v>0</v>
       </c>
+      <c r="BB23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3479,6 +3561,12 @@
       <c r="BA25">
         <v>3</v>
       </c>
+      <c r="BB25">
+        <v>2</v>
+      </c>
+      <c r="BC25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3806,6 +3894,12 @@
       <c r="BA28">
         <v>9</v>
       </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3973,6 +4067,12 @@
       <c r="BA29">
         <v>0</v>
       </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4140,6 +4240,12 @@
       <c r="BA30">
         <v>0</v>
       </c>
+      <c r="BB30">
+        <v>8</v>
+      </c>
+      <c r="BC30">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4307,6 +4413,12 @@
       <c r="BA31">
         <v>0</v>
       </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4693,6 +4805,12 @@
       <c r="BA35">
         <v>8</v>
       </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4860,6 +4978,12 @@
       <c r="BA36">
         <v>0</v>
       </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5021,6 +5145,12 @@
       <c r="AZ37">
         <v>0</v>
       </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5188,6 +5318,12 @@
       <c r="BA38">
         <v>0</v>
       </c>
+      <c r="BB38">
+        <v>0</v>
+      </c>
+      <c r="BC38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5434,6 +5570,12 @@
       <c r="BA41">
         <v>0</v>
       </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5598,6 +5740,12 @@
       <c r="BA42">
         <v>0</v>
       </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5765,6 +5913,12 @@
       <c r="BA43">
         <v>0</v>
       </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5931,6 +6085,12 @@
       <c r="AZ45">
         <v>0</v>
       </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6098,6 +6258,12 @@
       <c r="BA46">
         <v>0</v>
       </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6265,6 +6431,12 @@
       <c r="BA47">
         <v>0</v>
       </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6432,6 +6604,12 @@
       <c r="BA48">
         <v>0</v>
       </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6599,6 +6777,12 @@
       <c r="BA49">
         <v>0</v>
       </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6766,6 +6950,12 @@
       <c r="BA50">
         <v>0</v>
       </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6933,6 +7123,12 @@
       <c r="BA51">
         <v>0</v>
       </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7347,6 +7543,12 @@
       <c r="BA54">
         <v>0</v>
       </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7496,6 +7698,12 @@
       <c r="BA55">
         <v>0</v>
       </c>
+      <c r="BB55">
+        <v>0</v>
+      </c>
+      <c r="BC55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7612,6 +7820,12 @@
       <c r="BA56">
         <v>0</v>
       </c>
+      <c r="BB56">
+        <v>0</v>
+      </c>
+      <c r="BC56">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7776,6 +7990,12 @@
       <c r="BA57">
         <v>0</v>
       </c>
+      <c r="BB57">
+        <v>0</v>
+      </c>
+      <c r="BC57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7931,6 +8151,12 @@
       <c r="BA58">
         <v>0</v>
       </c>
+      <c r="BB58">
+        <v>0</v>
+      </c>
+      <c r="BC58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8096,6 +8322,12 @@
         <v>0</v>
       </c>
       <c r="BA59">
+        <v>0</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +393,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -422,6 +427,9 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -442,6 +450,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -471,6 +482,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -500,6 +514,9 @@
       <c r="G5">
         <v>27</v>
       </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="G6">
         <v>2</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -558,6 +578,9 @@
       <c r="G7">
         <v>13</v>
       </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -616,6 +642,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -625,15 +654,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD SAN CAMILO</t>
-        </is>
-      </c>
-      <c r="G10">
+          <t>CENTRO DE SALUD SAN NICOLAS</t>
+        </is>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
     </row>
@@ -645,19 +674,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD VILLASANTANA</t>
-        </is>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+          <t>CENTRO DE SALUD SAN CAMILO</t>
+        </is>
       </c>
       <c r="G11">
         <v>0</v>
@@ -671,16 +694,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD PERLA DEL OTUN</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>9</v>
+          <t>CENTRO DE SALUD VILLASANTANA</t>
+        </is>
       </c>
       <c r="E12">
         <v>0</v>
@@ -700,15 +720,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD VILLA CONSOTA</t>
-        </is>
+          <t>CENTRO DE SALUD PERLA DEL OTUN</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>
@@ -720,15 +752,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD CAIMALITO</t>
+          <t>CENTRO DE SALUD VILLA CONSOTA</t>
         </is>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
     </row>
@@ -740,15 +775,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD LA BELLA</t>
-        </is>
-      </c>
-      <c r="F15">
+          <t>PUESTO DE SALUD CAIMALITO</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>
@@ -760,18 +798,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ARABIA</t>
+          <t>PUESTO DE SALUD LA BELLA</t>
         </is>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0</v>
       </c>
     </row>
@@ -783,24 +821,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ALTAGRACIA</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+          <t>PUESTO DE SALUD ARABIA</t>
+        </is>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
     </row>
@@ -812,25 +847,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HOSPITAL DEL CENTRO</t>
+          <t>PUESTO DE SALUD ALTAGRACIA</t>
         </is>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -841,57 +879,60 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
+          <t>HOSPITAL DEL CENTRO</t>
         </is>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6600100361</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CLINICA LOS ROSALES</t>
+          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
         </is>
       </c>
       <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6600100663</t>
+          <t>6600100361</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -901,26 +942,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
+          <t>CLINICA LOS ROSALES</t>
         </is>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6600100762</t>
+          <t>6600100663</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -930,26 +974,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
+          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
         </is>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6600100785</t>
+          <t>6600100762</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -959,84 +1006,93 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
+          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
         </is>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6600101587</t>
+          <t>6600100785</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
         </is>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6600101736</t>
+          <t>6600101587</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
+          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
         </is>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6600101781</t>
+          <t>6600101736</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1046,26 +1102,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
         </is>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6600101912</t>
+          <t>6600101781</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1075,7 +1134,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RED MEDICA VITAL SAS</t>
+          <t>SINERGIA GLOBAL EN SALUD SAS</t>
         </is>
       </c>
       <c r="D27">
@@ -1088,75 +1147,84 @@
         <v>0</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6600102402</t>
+          <t>6600101912</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
-        </is>
+          <t>RED MEDICA VITAL SAS</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6600102411</t>
+          <t>6600102402</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
-        </is>
-      </c>
-      <c r="F29">
+          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
+        </is>
+      </c>
+      <c r="G29">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0</v>
       </c>
     </row>
@@ -1168,7 +1236,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1186,13 +1254,16 @@
         <v>0</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6600102453</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1202,7 +1273,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VITALCARE IPS SAS</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D32">
@@ -1215,23 +1286,26 @@
         <v>0</v>
       </c>
       <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102453</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EMPRESA DE MEDICINA INTEGRAL EMI SA - SERVICIO DE</t>
+          <t>VITALCARE IPS SAS</t>
         </is>
       </c>
       <c r="D33">
@@ -1244,13 +1318,16 @@
         <v>0</v>
       </c>
       <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1260,7 +1337,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>EMPRESA DE MEDICINA INTEGRAL EMI SA - SERVICIO DE</t>
         </is>
       </c>
       <c r="D34">
@@ -1273,6 +1350,9 @@
         <v>0</v>
       </c>
       <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>0</v>
       </c>
     </row>
@@ -1284,12 +1364,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D35">
@@ -1302,6 +1382,9 @@
         <v>0</v>
       </c>
       <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
     </row>
@@ -1313,12 +1396,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D36">
@@ -1331,6 +1414,9 @@
         <v>0</v>
       </c>
       <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
         <v>0</v>
       </c>
     </row>
@@ -1342,12 +1428,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D37">
@@ -1360,23 +1446,26 @@
         <v>0</v>
       </c>
       <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D38">
@@ -1389,13 +1478,16 @@
         <v>0</v>
       </c>
       <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1405,7 +1497,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D39">
@@ -1418,13 +1510,16 @@
         <v>0</v>
       </c>
       <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1434,7 +1529,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>NEUROMEDICA SAS</t>
         </is>
       </c>
       <c r="D40">
@@ -1443,14 +1538,20 @@
       <c r="E40">
         <v>0</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
       <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1460,7 +1561,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COOMEVA EXPERIENCIA MEDICA SAS</t>
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
         </is>
       </c>
       <c r="D41">
@@ -1469,17 +1570,17 @@
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1489,7 +1590,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
+          <t>COOMEVA EXPERIENCIA MEDICA SAS</t>
         </is>
       </c>
       <c r="D42">
@@ -1502,13 +1603,16 @@
         <v>0</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6600103334</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1518,7 +1622,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CLINICA CENTRAL DEL EJE SAS</t>
+          <t>CLINICA LOS NEVADOS SAS</t>
         </is>
       </c>
       <c r="D43">
@@ -1531,13 +1635,16 @@
         <v>0</v>
       </c>
       <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6600103414</t>
+          <t>6600103334</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1547,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CLINICA MEDICA TURIN SAS</t>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
         </is>
       </c>
       <c r="D44">
@@ -1557,26 +1664,29 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103414</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
+          <t>CLINICA MEDICA TURIN SAS</t>
         </is>
       </c>
       <c r="D45">
@@ -1586,26 +1696,29 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600161600</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>EPMSC PEREIRA</t>
         </is>
       </c>
       <c r="D46">
@@ -1618,35 +1731,73 @@
         <v>0</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>0</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/revision_IRAhospital_semanal.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +398,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -430,6 +435,9 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +461,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -462,27 +473,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CAJA DE COMPENSACION FAMILIAR DE RISARALDA COMFAMI</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+          <t>CENTRO MEDICO N° 1</t>
+        </is>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
@@ -494,7 +493,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -503,51 +502,57 @@
         </is>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6600100332</t>
+          <t>6600100217</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UNIDAD INTERMEDIA DE KENNEDY</t>
+          <t>CAJA DE COMPENSACION FAMILIAR DE RISARALDA COMFAMI</t>
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -558,28 +563,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UNIDAD INTERMEDIA DE CUBA</t>
+          <t>UNIDAD INTERMEDIA DE KENNEDY</t>
         </is>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -590,28 +598,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD BOSTON</t>
+          <t>UNIDAD INTERMEDIA DE CUBA</t>
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -622,12 +633,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD SANTA TERESITA</t>
+          <t>CENTRO DE SALUD BOSTON</t>
         </is>
       </c>
       <c r="D9">
@@ -643,6 +654,9 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -654,15 +668,30 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD SAN NICOLAS</t>
-        </is>
+          <t>CENTRO DE SALUD SANTA TERESITA</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
@@ -674,15 +703,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD SAN CAMILO</t>
-        </is>
-      </c>
-      <c r="G11">
+          <t>CENTRO DE SALUD SAN NICOLAS</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
     </row>
@@ -694,19 +726,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD VILLASANTANA</t>
-        </is>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+          <t>CENTRO DE SALUD SAN CAMILO</t>
+        </is>
       </c>
       <c r="G12">
         <v>0</v>
@@ -720,16 +746,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD PERLA DEL OTUN</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>9</v>
+          <t>CENTRO DE SALUD VILLASANTANA</t>
+        </is>
       </c>
       <c r="E13">
         <v>0</v>
@@ -740,7 +763,7 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -752,13 +775,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD VILLA CONSOTA</t>
-        </is>
+          <t>CENTRO DE SALUD PERLA DEL OTUN</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -775,18 +807,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD CAIMALITO</t>
+          <t>CENTRO DE SALUD VILLA CONSOTA</t>
         </is>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD LA BELLA</t>
-        </is>
-      </c>
-      <c r="F16">
+          <t>PUESTO DE SALUD CAIMALITO</t>
+        </is>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
     </row>
@@ -821,18 +859,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ARABIA</t>
+          <t>PUESTO DE SALUD LA BELLA</t>
         </is>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
@@ -847,19 +882,13 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PUESTO DE SALUD ALTAGRACIA</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+          <t>PUESTO DE SALUD ARABIA</t>
+        </is>
       </c>
       <c r="F18">
         <v>0</v>
@@ -879,28 +908,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HOSPITAL DEL CENTRO</t>
+          <t>PUESTO DE SALUD ALTAGRACIA</t>
         </is>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -911,60 +940,66 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
+          <t>HOSPITAL DEL CENTRO</t>
         </is>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6600100361</t>
+          <t>6600100332</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CLINICA LOS ROSALES</t>
+          <t>CENTRO DE SALUD CASA DEL ABUELO</t>
         </is>
       </c>
       <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6600100663</t>
+          <t>6600100361</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -974,29 +1009,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
+          <t>CLINICA LOS ROSALES</t>
         </is>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6600100762</t>
+          <t>6600100663</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1006,29 +1041,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
+          <t>ONCOLOGOS DEL OCCIDENTE SA</t>
         </is>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>2</v>
-      </c>
-      <c r="E23">
-        <v>4</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6600100785</t>
+          <t>6600100762</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1038,93 +1076,102 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
+          <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
         </is>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6600101587</t>
+          <t>6600100785</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
+          <t>FUNDACIÓN LA LIGA AMA SALVAR VIDAS</t>
         </is>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6600101736</t>
+          <t>6600101587</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
+          <t>SOCIEDAD COMERCIALIZADORA DE INSUMOS Y SERVICIOS M</t>
         </is>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6600101781</t>
+          <t>6600101736</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1134,14 +1181,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SINERGIA GLOBAL EN SALUD SAS</t>
+          <t>CORPORACIÓN MEDICA SALUD PARA LOS COLOMBIANOS - CM</t>
         </is>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1150,13 +1197,16 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6600101912</t>
+          <t>6600101781</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1166,7 +1216,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RED MEDICA VITAL SAS</t>
+          <t>SINERGIA GLOBAL EN SALUD SAS</t>
         </is>
       </c>
       <c r="D28">
@@ -1182,81 +1232,90 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6600102402</t>
+          <t>6600101912</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
-        </is>
+          <t>RED MEDICA VITAL SAS</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6600102411</t>
+          <t>6600102402</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
-        </is>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+          <t>IPS CENTRO DE MEDICINA INTEGRATIVA SAS</t>
+        </is>
+      </c>
+      <c r="G30">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6600102446</t>
+          <t>6600102411</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
+          <t>SERVICIOS DE SALUD IPS SURAMERICANA SA</t>
+        </is>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
     </row>
@@ -1268,7 +1327,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1289,13 +1348,16 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6600102453</t>
+          <t>6600102446</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1305,7 +1367,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VITALCARE IPS SAS</t>
+          <t>CAJA COLOMBIANA DE SUBSIDIO FAMILIAR COLSUBSIDIO</t>
         </is>
       </c>
       <c r="D33">
@@ -1321,23 +1383,26 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6600102477</t>
+          <t>6600102453</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>02</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EMPRESA DE MEDICINA INTEGRAL EMI SA - SERVICIO DE</t>
+          <t>VITALCARE IPS SAS</t>
         </is>
       </c>
       <c r="D34">
@@ -1353,13 +1418,16 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6600102601</t>
+          <t>6600102477</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1369,7 +1437,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS SA PINARES</t>
+          <t>EMPRESA DE MEDICINA INTEGRAL EMI SA - SERVICIO DE</t>
         </is>
       </c>
       <c r="D35">
@@ -1385,6 +1453,9 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
     </row>
@@ -1396,12 +1467,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS LAGO</t>
+          <t>VIRREY SOLIS SA PINARES</t>
         </is>
       </c>
       <c r="D36">
@@ -1417,6 +1488,9 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
     </row>
@@ -1428,12 +1502,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA ALPES</t>
+          <t>VIRREY SOLIS IPS LAGO</t>
         </is>
       </c>
       <c r="D37">
@@ -1449,6 +1523,9 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1537,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VIRREY SOLIS IPS SA LA REBECA</t>
+          <t>VIRREY SOLIS IPS SA ALPES</t>
         </is>
       </c>
       <c r="D38">
@@ -1481,23 +1558,26 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6600102793</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
+          <t>VIRREY SOLIS IPS SA LA REBECA</t>
         </is>
       </c>
       <c r="D39">
@@ -1513,45 +1593,36 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6600102893</t>
+          <t>6600102601</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>08</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NEUROMEDICA SAS</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
+          <t>VIRREY SOLIS IPS SA CERRITOS</t>
+        </is>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6600103012</t>
+          <t>6600102793</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1561,7 +1632,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
+          <t>CENTRO MEDICO PEREIRA COLSANITAS</t>
         </is>
       </c>
       <c r="D41">
@@ -1570,17 +1641,23 @@
       <c r="E41">
         <v>0</v>
       </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6600103078</t>
+          <t>6600102893</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1590,7 +1667,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>COOMEVA EXPERIENCIA MEDICA SAS</t>
+          <t>NEUROMEDICA SAS</t>
         </is>
       </c>
       <c r="D42">
@@ -1606,13 +1683,16 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6600103144</t>
+          <t>6600103012</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1622,7 +1702,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CLINICA LOS NEVADOS SAS</t>
+          <t>SPORT MEDICAL IPS GUSTAVO PORTELA SAS</t>
         </is>
       </c>
       <c r="D43">
@@ -1631,20 +1711,20 @@
       <c r="E43">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6600103334</t>
+          <t>6600103078</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1654,7 +1734,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CLINICA CENTRAL DEL EJE SAS</t>
+          <t>COOMEVA EXPERIENCIA MEDICA SAS</t>
         </is>
       </c>
       <c r="D44">
@@ -1670,13 +1750,16 @@
         <v>0</v>
       </c>
       <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6600103414</t>
+          <t>6600103144</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1686,7 +1769,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CLINICA MEDICA TURIN SAS</t>
+          <t>CLINICA LOS NEVADOS SAS</t>
         </is>
       </c>
       <c r="D45">
@@ -1696,29 +1779,32 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6600161600</t>
+          <t>6600103334</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EPMSC PEREIRA</t>
+          <t>CLINICA CENTRAL DEL EJE SAS</t>
         </is>
       </c>
       <c r="D46">
@@ -1734,13 +1820,16 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6600171151</t>
+          <t>6600103414</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1750,7 +1839,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+          <t>CLINICA MEDICA TURIN SAS</t>
         </is>
       </c>
       <c r="D47">
@@ -1760,44 +1849,120 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>6600161600</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EPMSC PEREIRA</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>6600171151</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SANIDAD POLICIA NACIONAL RISARALDA</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>6600183029</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>BATALLON SAN MATEO</t>
         </is>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
     </row>
